--- a/Excel/audacity_projects.xlsx
+++ b/Excel/audacity_projects.xlsx
@@ -1,20 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Parimal\Documents\GitHub\audacity-mr\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF9F0A7-B6BC-4C70-8866-DEF30C93F8D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="233">
   <si>
     <t>English</t>
   </si>
@@ -368,13 +382,358 @@
   </si>
   <si>
     <t>Any audio data placed on the Audacity clipboard by Cut or Copy is however retained until you exit Audacity itself.</t>
+  </si>
+  <si>
+    <t>येथे जा: सुचालन, शोधयंत्र</t>
+  </si>
+  <si>
+    <t>सामग्री</t>
+  </si>
+  <si>
+    <t>प्रकल्प प्रती जतन करीत आहे</t>
+  </si>
+  <si>
+    <t>प्रकल्प अवलंबने</t>
+  </si>
+  <si>
+    <t>स्वयंचलितरित्या जतन आणि पुनर्प्राप्ती</t>
+  </si>
+  <si>
+    <t>डिस्क स्पेस वापर</t>
+  </si>
+  <si>
+    <t>"My_song.aup"</t>
+  </si>
+  <si>
+    <t>त्याच प्रकल्प नाव आणि .aup फाईल प्रमाणे फोल्डर मध्ये एक _data फोल्डर, उदाहरणार्थ "my_song_data" साठी</t>
+  </si>
+  <si>
+    <t>आपण आपल्या योजनेचे नाव बदलणे करू इच्छित असल्यास, फाईल&gt; एक प्रकल्प जतन करा&gt; प्रकल्प जतन करा Lossless कॉपी करा ... किंवा फाईल&gt; Save प्रकल्प&gt; जतन करा प्रकल्प म्हणून वापर (उदाहरणार्थ, एका विशिष्ट टप्प्यावर एक स्नॅपशॉट जतन करण्यासाठी) ... आदेश.</t>
+  </si>
+  <si>
+    <t>तेथे प्रकल्प जतन करण्यासाठी तीन मुख्य आदेश आहेत:</t>
+  </si>
+  <si>
+    <t>(एक ओळखले राज्यात आपल्या प्रकल्पाचा सुरक्षा बॅकअप प्रत आयोजित उदाहरणार्थ) विद्यमान नवीन नाव प्रकल्प सद्यस्थितीत प्रकल्प एक नवीन प्रत तयार</t>
+  </si>
+  <si>
+    <t>चालू प्रकल्प वर कार्य सुरू ठेवण्यासाठी आपण खुले राहील.</t>
+  </si>
+  <si>
+    <t>फाईल&gt; Save प्रकल्प&gt; जतन करा प्रकल्प म्हणून ... तसेच एक मानक प्रकल्प वाचवतो. हे रिक्त प्रकल्प जतन किंवा एक नवीन नाव विद्यमान प्रकल्प जतन करण्यासाठी उपयुक्त आहे.</t>
+  </si>
+  <si>
+    <t>प्रकल्प जतन करा Lossless कॉपी</t>
+  </si>
+  <si>
+    <t>प्रवेश:&gt; जतन करा प्रकल्प&gt; प्रकल्प जतन करा Lossless कॉपी करा ...</t>
+  </si>
+  <si>
+    <t>हे आपण त्यावर काम म्हणून एक प्रकल्प एक सुरक्षा बॅकअप प्रत तयार करण्यासाठी सुरक्षित आणि शिफारस केलेला मार्ग आहे. हा प्रकल्प एका बॅकअप प्रत म्हणून एकतर सेवा शकते, किंवा राज्य एक विशिष्ट तारीख आणि वेळ होती प्रकल्प अनेक वाढीव प्रती एक म्हणून. हा आदेश वापरून वर कार्य सुरू ठेवण्यासाठी आपण सक्षम आपल्या वर्तमान प्रकल्प उघडलेले असेल "म्हणून जतन करा ..." आवडले नाही.</t>
+  </si>
+  <si>
+    <t>प्रकल्प म्हणून जतन करा</t>
+  </si>
+  <si>
+    <t>प्रवेश: फाईल&gt; Save प्रकल्प&gt; जतन करा प्रकल्प म्हणून ...</t>
+  </si>
+  <si>
+    <t>हे एक नवीन नाव किंवा स्थान एक प्रकल्प एक प्रत करण्यासाठी एक मार्ग आहे.</t>
+  </si>
+  <si>
+    <t>आपण "जतन करा प्रकल्प म्हणून" एक नवीन नाव, प्रकल्प विंडो नंतर प्रकल्प नाव दाखवतो, तर आपण फक्त "म्हणून जतन". प्रकल्प विंडो पूर्वी नाव म्हणून त्याच्या शेवटी जतन केलेला राज्यात बंद आहे, परंतु आवश्यक म्हणून काबीज केले जाऊ शकते प्रकल्प प्रदर्शित.</t>
+  </si>
+  <si>
+    <t>प्रकल्प जतन करा संकुचित कॉपी</t>
+  </si>
+  <si>
+    <t>जुने प्रकल्प</t>
+  </si>
+  <si>
+    <t>आयात सेटिंग्ज: "जलद" विरुद्ध "सुरक्षित"</t>
+  </si>
+  <si>
+    <t>या "सुरक्षित" पर्याय निवडा:</t>
+  </si>
+  <si>
+    <t>डिस्क जागा भरपूर उपलब्ध आहे आणि आयात नेले वेळ महत्वाचा नाही</t>
+  </si>
+  <si>
+    <t>कोणत्याही प्रकल्पासाठी समान संगणकावर हलविणे शक्य नाही, किंवा नामकरण करण्यात एकतर फाईल&gt; Save प्रकल्प&gt; प्रकल्प जतन करा Lossless कॉपी करा ... किंवा फाईल&gt; Save प्रकल्प&gt; जतन करा प्रकल्प म्हणून ... आदेश प्रकल्प एक प्रत करून, .</t>
+  </si>
+  <si>
+    <t>कोणतीही फोल्डर मध्ये हाताने एक योजनेचे नाव बदलणे नका. त्यामुळे भ्रष्ट होईल प्रोजेक्ट करत.</t>
+  </si>
+  <si>
+    <t>इतरांना आणि या जाणारे आपले कार्य पाठवत आहे पहा.</t>
+  </si>
+  <si>
+    <t>नियमित बॅकअप शक्य असल्यास सर्व डाटा नष्ट संगणक हार्ड ड्राइव्हस् अपयशी शकता, डिव्हाइस वर्तमान प्रकल्प संचयित केलेली आहे, पेक्षा इतर एक किंवा दोन साधने केले पाहिजे. उदाहरणार्थ, बॅकअप, किंवा आदर्श बाह्य USB ड्राइव्ह संगणक दुसर्या अंतर्गत ड्राइव्ह केले किंवा ऑनलाइन (मेघ) संचय सेवा अपलोड केले जाऊ शकते.</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>आपण एका मोठ्या प्रकल्प संपादित करीत आहेत तर हे महत्वाचे असू शकते.</t>
+  </si>
+  <si>
+    <t>ओड्यासिटी प्रकल्प व्यवस्थापकीय - ओड्यासिटी मॅन्युअल</t>
+  </si>
+  <si>
+    <t>ओड्यासिटी प्रकल्प व्यवस्थापकीय</t>
+  </si>
+  <si>
+    <t>ओड्यासिटी विकास मॅन्युअल पासून</t>
+  </si>
+  <si>
+    <t>एक ओड्यासिटी अशी या प्रकल्पाची रचना</t>
+  </si>
+  <si>
+    <t>एक ओड्यासिटी प्रकल्प जतन करीत आहे</t>
+  </si>
+  <si>
+    <t>एक ओड्यासिटी प्रकल्प उघडत</t>
+  </si>
+  <si>
+    <t>जाण्याचा किंवा ओड्यासिटी प्रकल्प पाठवून</t>
+  </si>
+  <si>
+    <t>ओड्यासिटी प्रकल्प बॅक अप घेत आहे</t>
+  </si>
+  <si>
+    <t>एक ओड्यासिटी प्रकल्प हटवित</t>
+  </si>
+  <si>
+    <t>ओड्यासिटी प्रकल्प स्वरूप</t>
+  </si>
+  <si>
+    <t>एक जतन ओड्यासिटी अशी या प्रकल्पाची रचना आहे:</t>
+  </si>
+  <si>
+    <t>आपल्या ओड्यासिटी प्रकल्प आनंदी ठेवण्यासाठी चार नियम:</t>
+  </si>
+  <si>
+    <t>एक ओड्यासिटी प्रकल्प बचत फायदे आहेत:</t>
+  </si>
+  <si>
+    <t>Lossless जतन करा कॉपी ओड्यासिटी विपरीत त्याच्या शेवटी-बंद केलेला राज्यात वर्तमान प्रकल्प बंद करा आणि वर्तमान स्थितीत नवीन प्रकल्प उघडेल.</t>
+  </si>
+  <si>
+    <t>हलवित, पुनर्नामित किंवा ओड्यासिटी प्रकल्प पाठवून</t>
+  </si>
+  <si>
+    <t>वर वर्णन हलवून किंवा ओड्यासिटी प्रकल्प पुनर्नामित त्यांच्या जटिल रचना झाल्यामुळे अवघड असू शकते.</t>
+  </si>
+  <si>
+    <t>ओड्यासिटी प्रकल्प अप टेकू सल्ला कृपया हे FAQ पहा.</t>
+  </si>
+  <si>
+    <t>नाही फाईल&gt; ओड्यासिटी हटवा प्रकल्प आदेश आहे; म्हणून डिस्क जागा मोकळी ते स्वतः हटविणे करणे आवश्यक आहे एक प्रकल्प हटवू.</t>
+  </si>
+  <si>
+    <t>आपण संपादन सुरू एकदा, मूळ जसाच्या तसा ध्वनी बदललेल्या ध्वनी सोबत ठेवली जाते. त्यामुळे आपण संपादने बाहेर प्रयत्न संपादित करा&gt; पूर्ववत करा आणि संपादित करा&gt; पुन्हा वापरता आणि ते पूर्ववत करू शकत आपल्याला पाहिजे ते आवाज नाही तर हे आहे.</t>
+  </si>
+  <si>
+    <t>एक ध्वनी धारिका करण्यासाठी (जसे की</t>
+  </si>
+  <si>
+    <t>WAV किंवा MP3), किंवा इतर अनुप्रयोग निर्यात ध्वनी एक आज्ञा वापर धारिका&gt; निर्यात मेन्यू पासून उपलब्ध वापरासाठी आपल्या संगीत खेळाडू वर खेळत आहे.</t>
+  </si>
+  <si>
+    <t>एक AUP प्रोजेक्ट धारिका - प्रकल्प नाव ".aup" त्यानंतर, उदाहरणार्थ</t>
+  </si>
+  <si>
+    <t>लक्षात ठेवा Windows व Mac वर मुलभूत वर्तन काही निश्चित धारिका विस्तार लपविण्यासाठी आहे; या लागू होत असल्यास, .aup धारिका फक्त संगणक मध्ये "my_song" म्हणून दिसेल. ओड्यासिटी .exe इंस्टॉलर आणि "ज्ञात धारिका प्रकार करीता लपवा धारिका विस्तार" राहते विंडोज एक्सप्लोरर मध्ये चेक वरून स्थापित केले होते तर Windows वर, .aup विस्तार लपविला जाईल. आपण या सूचनांचे अनुसरण करून विंडोज विस्तार समक्ष आणू शकतात.</t>
+  </si>
+  <si>
+    <t>AUP धारिका XML स्वरूपात आहे आणि आवश्यक असल्यास एक टेक्स्ट एडिटर मध्ये उघडली जाऊ शकतात. ऑस्ट्रेलिया धारिका्स एक लॉसलेस्, uncompressed स्वरूपात साठवले जातात. त्यांचे डीफॉल्ट आकार 1 MB किंवा कमी आहे. या ओड्यासिटी प्रकल्प स्वरूप ओड्यासिटी जलद ध्वनी संपादन करण्यासाठी डिझाइन केलेले आहे.</t>
+  </si>
+  <si>
+    <t>एक uncompressed ध्वनी धारिका आयात करताना "मूळ थेट वाचा uncompressed धारिका (जलद)" पर्याय आयात / निर्यात प्राधान्ये चेक हलवा नाही, आधिकार नोंद किंवा आपण प्रथम ओड्यासिटी प्रकल्प कॉपी नाही तोपर्यंत धारिका हटवा. &gt; मदत&gt; निदान पहा अवलंबने तपासा ... अधिक माहितीसाठी.</t>
+  </si>
+  <si>
+    <t>AUP धारिका किंवा हाताने _data फोल्डर पुनर्नामित करा नका.</t>
+  </si>
+  <si>
+    <t>नेहमी एकत्र एकाच डिरेक्ट्रीमध्ये (फोल्डर नाही) मध्ये AUP धारिका आणि _data फोल्डर ठेवा.</t>
+  </si>
+  <si>
+    <t>जतन ओड्यासिटी प्रकल्प फक्त उघडले आणि ओड्यासिटी वापरली जाऊ शकते. आपण आपल्या संगीत खेळाडू खेळणार किंवा CD बर्ण करण्यासाठी एक ध्वनी धारिका इच्छित असल्यास, निर्यात आदेशचा वापर करा.</t>
+  </si>
+  <si>
+    <t>पुन्हा आयात किंवा पुन्हा रेकॉर्ड धारिका करण्याची गरज नाही</t>
+  </si>
+  <si>
+    <t>फाईल&gt; Save प्रकल्प&gt; जतन करा प्रकल्प एक AUP प्रकल्प धारिका म्हणून एक मानक प्रकल्प आणि प्रत्यक्ष ध्वनी असलेले फोल्डर एक _data (त्याचे नाव नंतर ".aup" एक धारिका) वाचवतो. प्रकल्प जतन न केलेले बदल नाही तर (उदाहरणार्थ, प्रकल्प रिक्त आहे किंवा आपण फक्त तो जतन केला असेल तर), "जतन करा प्रकल्प" राखाडी जाईल.</t>
+  </si>
+  <si>
+    <t>फाईल&gt; Save प्रकल्प&gt; प्रकल्प जतन करा Lossless कॉपी करा ... तसेच एक AUP धारिका आणि _data फोल्डर म्हणून एक मानक प्रकल्प वाचवतो. तो एक जतन करण्यासाठी आहे</t>
+  </si>
+  <si>
+    <t>धारिका कोणत्याही प्रकारच्या बचत म्हणून, ते कार्य सिस्टमसाठी आरक्षित आहेत तर काही वर्ण AUP धारिका नाव वापरले जाऊ शकत नाही. निषिद्ध वर्ण आमच्या माहिती पहा.</t>
+  </si>
+  <si>
+    <t>एक ओड्यासिटी प्रकल्प जतन करताना तो धारिका वापरण्याची साधारणपणे सर्वात सोपा आहे&gt; जतन करा प्रकल्प आदेश (Mac वर किंवा ⌘ + S) Ctrl + S डीफॉल्ट शॉर्टकट आहे. जतन एक प्रकल्प पुन्हा केले आणखी बदल येत, "जतन करा प्रकल्प" नंतर AUP धारिका आणि _data फोल्डर शांतपणे प्रॉम्प्ट तुम्हाला त्रास न अद्यतनित जर.</t>
+  </si>
+  <si>
+    <t>आपण ऑपरेटिंग प्रणालीच्या प्रत वापर कधीही आणि मूळ प्रोजेक्ट म्हणून समान फोल्डर मध्ये प्रकल्प AUP धारिका एक प्रत आणि _data फोल्डर करण्यासाठी पेस्ट करा. आपल्या हातात एक प्रत करणे आवश्यक आहे, तर जतन करा आणि बंद प्रथम तत्कालीन AUP धारिका आणि _data फोल्डर कॉपी आणि एका भिन्न फोल्डरमध्ये पेस्ट. या मूळ धारिका याची खात्री आणि फोल्डर नावे कायम ठेवली जातात.</t>
+  </si>
+  <si>
+    <t>आपण (इंटरनेट एक प्रकल्प पाठवू उदाहरणार्थ) जागा जतन करणे आवश्यक असल्यास आपल्याला धारिका वापरून आपल्या प्रकल्पाचा संकुचित आवृत्ती जतन करू शकता&gt; जतन करा प्रकल्प&gt; प्रकल्प जतन करा संकुचित कॉपी ....</t>
+  </si>
+  <si>
+    <t>आपण प्रथम वापरून फाईल&gt; आयात किंवा धारिका ओढून कोणत्याही अर्थ एक धारिका उदाहरणार्थ, आयात, "मध्ये प्रत" प्राधान्य आपोआप सेट केले जाते आणि एक चेतावणी संवाद प्रत-इन आणि read- फरक समजावून सादर थेट आणि ही आयात जे पद्धत वापरली पाहिजे विचारत. ओड्यासिटी भविष्यात आपल्या वर्तमान निवड वापरा आणि पुन्हा विचारू आपण निवड करू शकता, परंतु आपण आयात कोणत्याही वेळी आपली निवड बदलू शकते - निर्यात प्राधान्ये.</t>
+  </si>
+  <si>
+    <t>कोणत्याही वेळी मदत&gt; निदान वर क्लिक करा&gt; अवलंबने तपासा ... प्रकल्प कोणत्याही बाह्य धारिका अवलंबून असल्यास पाहण्यासाठी करणे शक्य आहे.</t>
+  </si>
+  <si>
+    <t>ओड्यासिटी एक WAV किंवा एआयएफएफ धारिका आयात निर्धारित कसे दोन सेटिंग्ज आहेत.</t>
+  </si>
+  <si>
+    <t>आपल्याला मन: शांती करू इच्छित असलेला प्रकल्प इतर धारिका्स अवलंबून नाही की</t>
+  </si>
+  <si>
+    <t>ओड्यासिटी प्रकल्प दुसर्या संगणकावर उघडल्या किंवा कोणीतरी पाठविला जाईल आहे (आपण फक्त कोणीतरी निर्यातीत ध्वनी धारिका पाठवू इच्छित असल्यास, आपण "सुरक्षित" निवडा करण्याची गरज नाही).</t>
+  </si>
+  <si>
+    <t>कोणीतरी फक्त एक AUP फाईल पाठवत आहे त्यांना ओड्यासिटी प्रकल्प पाठवू शकत नाही - आपण खूप लहान AU धारिका असलेले फोल्डर _data पाठविणे आवश्यक आहे असे करावे.</t>
+  </si>
+  <si>
+    <t>आपण AUP धारिका आणि त्याचे संबंधित, identically नाव _data फोल्डर दोन्ही हटविणे आवश्यक असेल.</t>
+  </si>
+  <si>
+    <t>तितक्या लवकर आपण एक प्रकल्प विंडो उघडा आणि हा एक पूर्वी जतन प्रकल्प आहे किंवा आपण एक नवीन प्रकल्प तयार आहेत का, विंडो सामग्री बदलू म्हणून, ओड्यासिटी प्रकल्प एक ".autosave" धारिका म्हणतात, एका अस्थायी संदर्भ धारिका लिहितात. या ओड्यासिटी आपोआप क्रॅश किंवा शक्ती नुकसान झाल्यास जतन न केलेले बदल पुनर्प्राप्त करण्यासाठी परवानगी देते.</t>
+  </si>
+  <si>
+    <t>धारिका AUP प्रकल्प धारिका एकसारखे अंतर्गत रचना आहे, पण एक टेक्स्ट एडिटर वाचनीय नाही.</t>
+  </si>
+  <si>
+    <t>ओड्यासिटी सर्व संपादन प्रकल्प म्हणून केले जाते. तो एक प्रकल्प एकच ध्वनी धारिका पण ओड्यासिटी द्वारे व्यवस्थापित धारिका जटिल संच नाही आहे हे लक्षात घेणे महत्वाचे आहे.</t>
+  </si>
+  <si>
+    <t>आपण फक्त एक मुद्रण केले असेल तर जोरदार आपण लगेच प्रकल्प संपादित सुरू करण्यापूर्वी एक सुरक्षा प्रत वापरून फाईल&gt; निर्यात&gt; निर्यात ध्वनी ... WAV किंवा एआयएफएफ (आदर्श बाह्य ड्राइव्ह) आपल्या ध्वनी निर्यात, अशी शिफारस केली आहे.</t>
+  </si>
+  <si>
+    <t>उदाहरणार्थ, मुलभूत गुणवत्ता सेटिंग्ज येथे पाच मिनिट स्टिरीओ मुद्रण 100 जागा MB घेते. आपण त्या मुद्रण संपूर्ण लांबी संपादित करत असल्यास, डिस्क स्पेस वापर 200 MB पर्यंत वाढवण्यात येईल.</t>
+  </si>
+  <si>
+    <t>व्हेवफॉर्म प्रदर्शन आणि कोणत्याही अवलंबून ध्वनी धारिका दुवे असतो त्यांच्या स्रोत स्थान थेट वाचली आहे.</t>
+  </si>
+  <si>
+    <t>कधीही हलवा, हटविण्यासाठी किंवा _data फोल्डरमधील धारिका किंवा फोल्डर कोणत्याही नाव बदला.</t>
+  </si>
+  <si>
+    <t>एक ओड्यासिटी प्रकल्प नेहमी धारिका वापर उघडताना&gt; उघडा किंवा फाईल&gt; अलीकडील धारिका "my_song.aup" उघडण्यासाठी.</t>
+  </si>
+  <si>
+    <t>उघडा आयात किंवा हाताळू कोणतीही व्यक्ती AU धारिका प्रयत्न करू नका.</t>
+  </si>
+  <si>
+    <t>uncompressed ध्वनी धारिका, अशा WAV किंवा एआयएफएफ म्हणून आयात करताना, ओड्यासिटी त्यांच्या मूळ स्रोत स्थान थेट त्यांना वाचन, ऐवजी प्रकल्प मध्ये त्यांना कॉपी करून लगेच डिस्क स्थान आणि धारिका संपादित करा जतन करू देतो आयात प्राधान्य आहे. त्या प्रकरणात ओड्यासिटी थेट मूळ धारिका संदर्भ असेल (पण आपण त्यावर निर्यात तोपर्यंत ध्वनी धारिका कोणतेही बदल करू नयेत). आपण त्यांच्याशी थेट वाचन करून धारिका आयात असल्यास, आपण नाही की बिंदू स्थानांतरांची येथे, हलवा किंवा त्या मूळ स्त्रोत धारिका हटवा आणि ओड्यासिटी बाहेर त्यांना सुधारित नाही आवश्यक आहे.</t>
+  </si>
+  <si>
+    <t>एका वेगळ्या संगणकावर प्रकल्प हलवून, तर कारण या प्रत्यक्ष (पूर्ण) मार्ग AUP धारिका मध्ये साठवली जाते प्रकल्प बाह्य ध्वनी धारिका अवलंबून नाही आवश्यक आहे. &gt; मदत&gt; निदान वापरा प्रकल्प कोणत्याही बाह्य धारिका अवलंबून असते किंवा नाही हे तपासण्यासाठी अवलंबने ... आदेश तपासा.</t>
+  </si>
+  <si>
+    <t>तो नाही तर, संवाद बॉक्स प्रकल्प आत त्या धारिकांच्या एक प्रत तयार करू पर्याय देईल.</t>
+  </si>
+  <si>
+    <t>टीप या धारिका अंतर्गत आपल्या प्रकल्पाचा सूची काढणार नाही&gt; अलीकडील धारिका .... प्रकल्प आपण नोंद दूर करण्यासाठी अलीकडील धारिका यादीत की प्रकल्पासाठी AUP नोंद निवडू शकता हटविल्यानंतर.</t>
+  </si>
+  <si>
+    <t>की _data फोल्डर, ध्वनी माहिती वैयक्तिक विभागाच्या आहेत थोडे AU धारिका्स बरेच उप-फोल्डर संरचना आत.</t>
+  </si>
+  <si>
+    <t>संपादन दरम्यान वैयक्तिक AU धारिका अद्यतनित करून, ओड्यासिटी ध्वनी बदलू किंवा एक ठिकाणाहून दुसर्या माहिती मोठ्या प्रमाणात नक्कल न करता प्रकल्प सुमारे हलवू शकता.</t>
+  </si>
+  <si>
+    <t>ध्वनी माहिती नेहमी लॉसलेस् गुणवत्ता संरक्षित केला जातो. आपण आधीच MP3 सारख्या Lossy ध्वनी स्वरूप निर्यात पण पुढील प्रकल्प संपादित करण्यासाठी निर्णय असेल तर हे उपयुक्त आहे. संपादन आणि पुन्हा निर्यात प्रकल्प मागे निर्यात MP3 पुन्हा संपादित अतिरिक्त गुणवत्ता नुकसान वाचवतो.</t>
+  </si>
+  <si>
+    <t>एक प्रकल्प जतन करण्याची गरज नाही तोपर्यंत तो तात्पुरत्या प्रकल्प धारिका काम करणे शक्य आहे आणि नंतर फक्त फाईल&gt; निर्यात&gt; निर्यात ध्वनी ... आवश्यक ध्वनी धारिका निर्यात करण्यासाठी वापरता आवश्यक आहे. प्रकल्प जतन न केल्यास, आवश्यक ध्वनी माहिती अनुप्रयोग विद्यमान पर्यंत प्राधान्ये डिरेक्टरीज विभागात निर्दिष्ट तात्पुरती फोल्डर मध्ये साठवली जाते. त्या ठिकाणी, ओड्यासिटी एक प्रकल्प जतन किंवा नाही निवड देते.</t>
+  </si>
+  <si>
+    <t>लांब प्रकल्प माहिती भरपूर असतात. प्रकल्प ओड्यासिटी विद्यमान किंवा संगणक बंद करण्यापूर्वी पूर्णपणे जतन केले आहे याची खात्री करा. आहे, तर प्रकल्प जतन करण्यासाठी प्रगती संवाद, तो बंद करण्यापूर्वी प्रतीक्षा. तळाशी शो स्थिती बार संदेश प्रकल्प जतन केले गेले आहे, तेव्हा.</t>
+  </si>
+  <si>
+    <t>एक ओड्यासिटी प्रकल्प म्हणून जतन केले नाही जे ध्वनी फाईल&gt; आयात करा किंवा धारिका ओढून वापरून आयात करणे आवश्यक आहे. आयात आदेश आधीच उघडा प्रकल्प ध्वनी माहिती आयात करण्यासाठी वापरले जाते.</t>
+  </si>
+  <si>
+    <t>एक प्रकल्प जतन केले आहे आणि "जलद" पर्याय निवडला आहे, तेव्हा ओड्यासिटी ही अवलंबित्वे दर्शवित आहे एक डायलॉग बॉक्स प्रदर्शित आणि प्रकल्प मध्ये ध्वनी माहिती सर्व कॉपी पर्याय आपल्याला देईल. या बाह्य ध्वनी धारिका प्रकल्प स्वतंत्र करते आणि ते हटविण्यासाठी सुरक्षित करते, हलवा, आधिकार नोंद किंवा आवश्यक असल्यास मूळ ध्वनी धारिका सुधारित. प्रकल्प प्राधान्ये सेटिंग एक प्रकल्प जतन करताना ओड्यासिटी विचारू नये म्हणून सुधारित केले जाऊ शकते पण नेहमी एकतर अवलंबून ध्वनी धारिका "कॉपी कधीच नाही", किंवा प्रकल्प मध्ये त्यांना "नेहमी कॉपी".</t>
+  </si>
+  <si>
+    <t>मूळ स्थान uncompressed धारिका वाचा (जलद): ओड्यासिटी वापर ऑन-डिमांड लोड करीत आहे. या आयात धारिका बरेच जलद केवळ आयात धारिका संदर्भ आणि आयात धारिका उपलब्ध उर्वरित अवलंबून असलेल्या लहान auf "सारांश" धारिका लिहून. ध्वनी माहिती केवळ धारिका आपण त्या त्यानंतर संपादन कोणत्याही भागात मध्ये कॉपी केले आहे. आपण आयात धारिका संपूर्ण ध्वनी संपादन लागू केल्यास, ओड्यासिटी त्या वेळी संपूर्ण ध्वनी माहिती कॉपी होईल, त्यामुळे आपण संपूर्ण ध्वनी की संपादित करा पूर्ववत करा करणार नाही असे प्रदान, प्रकल्प आयात धारिका अवलंबून यापुढे सदैव होईल आहे .लक्षात ठेवा आपण एकाच धारिका नाव आणि स्थान निर्यात करून वाचन-थेट WAV किंवा एआयएफएफ धारिका खोडून पुन्हा तर, ओड्यासिटी एक प्रत्यय असलेली "-old" आणि एक नंबर आयात धारिका renames, नंतर या "-old" धारिका होते प्रकल्पासाठी अवलंबून धारिका. आपण निर्यात धारिका आनंदी आहेत आणि यापुढे ओड्यासिटी प्रकल्प आवश्यक पर्यंत "-old" फाईल (चे) हटवू नका.</t>
+  </si>
+  <si>
+    <t>आपण पूर्णपणे अभिप्रेत अर्थ समजून नाही तोपर्यंत "जलद" पर्याय निवडू नका. आपण हलविल्यास, पुनर्नामित करा किंवा आयात धारिका हटवा, प्रकल्प माहिती गमावला जाऊ शकतो.</t>
+  </si>
+  <si>
+    <t>आपण प्रकल्प जतन करा, प्रकल्प जतन करा Lossless कॉपी करा ... किंवा जतन प्रकल्प म्हणून वापर करता, तेव्हा ... यापुढे जतन न केलेले बदल, ताज्या जतन न केलेले बदल केले जातात होईपर्यंत म्हणून ".autosave" धारिका हटविली आहे. धारिका अनुप्रयोग माहिती ओड्यासिटी च्या फोल्डर आत "AUTOSAVE" फोल्डर मध्ये साठवली जाते.</t>
+  </si>
+  <si>
+    <t>अशा धारिका ".autosave" लेखन ट्रिगर जोडून किंवा ध्वनी काढून टाकणे किंवा त्यावर परिणाम अर्ज, म्हणून आपण ध्वनी माहितीमध्ये सर्वाधिक बदल. किंवा निवड स्थानावर बदल कर्सर संपादित ".autosave" धारिका लिहू शकत नाही, आणि प्रकल्प बंद करताना पकडले नाही, प्रकल्प सबमेनूसह नाही असल्याने जतन प्रकल्प करून दर्शविल्याप्रमाणे "गलिच्छ" (आधीच आहे तोपर्यंत राखाडी आणि क्लिक जात).</t>
+  </si>
+  <si>
+    <t>एका प्रकल्पावर काम करत असताना डिस्क जागा एक समस्या आहे, तर, आपण पूर्ववत करा पातळी आणि पुन्हा हक्क डिस्क जागा टाकून पहा&gt; इतिहास वापरू शकता .... लक्षात ठेवा की आपण&gt; धारिका वापरून बंद करा किंवा ओड्यासिटी विद्यमान प्रकल्प बंद एकदा, पूर्ववत / पुन्हा आवश्यक ध्वनी माहिती त्यामुळे शक्य आर्थिकदृष्ट्या प्रकल्प स्टोरेज म्हणून, काढून टाकली जाते.</t>
+  </si>
+  <si>
+    <t>प्रोजेक्ट धारिका ओड्यासिटी प्रकल्प फिती आणि गीतपट्टा अप करण्यासाठी एकत्र या AU धारिका दुवे कसे वर्णन; तो देखील वाढणे, पॅन आणि लिफाफा माहिती समाविष्टीत आहे, व्यवस्थापित करण्यासाठी माहिती</t>
+  </si>
+  <si>
+    <t>एक प्रकल्प जतन करीत आहे अपूर्ण काम आणि पुन्हा-उघडा तो नक्की म्हणून नंतर ओड्यासिटी मध्ये जतन सर्व संपादने आणि रेकॉर्ड / आयात गीतपट्टा जतन करतो देते. टीप पूर्ववत इतिहास प्रकल्प आणि प्रकल्प आपण नंतर प्रकल्प पुन्हा उघडता तेव्हा इतिहास सुरू पुन्हा म्हणून जतन केला नाही काळजीपूर्वक आहे.</t>
+  </si>
+  <si>
+    <t>जलद लोड, अगदी अनेक लांब गीतपट्टा</t>
+  </si>
+  <si>
+    <t>या Lossy, संकुचित या प्रोधारिकामध्ये स्वरूपात आपल्या प्रकल्पाचा एक प्रत जतन करेल, प्रत्येक गीतपट्टा स्वतंत्र OGG धारिका म्हणून जतन केले जात आहे.</t>
+  </si>
+  <si>
+    <t>वारसा AUP फाईल उघडून करण्यापूर्वी, तो आणि त्याच्या _data फोल्डर कॉपी आणि बॅकअप करण्यासाठी एका भिन्न फोल्डरमध्ये त्यांना पेस्ट करा. आपण ओड्यासिटी 1.2.x बॅकअप उघडू शकता आवश्यक असल्यास, WAV वर्तमान ओड्यासिटी मध्ये WAV धारिका आयात म्हणून प्रत्येक गीतपट्टा निर्यात.</t>
+  </si>
+  <si>
+    <t>प्रकल्प वारसा ओड्यासिटी 1.1.x मध्ये तयार केला आहे किंवा यापूर्वी फक्त ओड्यासिटी वारसा आवृत्ती WAV म्हणून प्रत्येक ध्वनी गीतपट्टा निर्यात उघडल्या जाऊ शकतात, नंतर ओड्यासिटी वर्तमान आवृत्ती मध्ये WAV धारिका आयात करा.</t>
+  </si>
+  <si>
+    <t>एक साधी एकच गीतपट्टा प्रकल्प (वाढणे किंवा पॅन सेटिंग्ज नाही, किंवा व्हॉल्यूम समायोजित करण्यासाठी एक लिफाफा वापर) एक शक्य उपाय प्रकल्प हलवू शकत आहे. त्याऐवजी, धारिका वापर&gt; निर्यात&gt; निर्यात ध्वनी ... आदेश WAV धारिका निर्यात करण्यासाठी. या WAV धारिका नंतर (जसे USB फ्लॅश ड्राइव्ह वापरून म्हणून) दुसर्या संगणकावर कॉपी केला जाऊ शकतो, धारिका नंतर&gt; आयात आदेश ओड्यासिटी प्रकल्प WAV धारिका लोड करण्यासाठी वापरले जाऊ शकते. वैकल्पिकरित्या WAV धारिका ई-मेल द्वारे किंवा एक फाईल शेअरिंग वेबसाइट द्वारे पाठविले जाऊ शकते कोणीतरी त्यांच्या संगणकावर एक ओड्यासिटी प्रकल्प आयात करू शकता कोण (WAV ईमेल साठी खूप मोठे नाही आहे).</t>
+  </si>
+  <si>
+    <t>अनेक गीतपट्टा आहे की एक प्रकल्प, किंवा वाढणे किंवा पॅन सेटिंग्ज किंवा गीतपट्टा आवाज समायोजित करण्यासाठी एक लिफाफा वापर सिंगल-गीतपट्टा प्रकल्पासाठी, संपूर्ण प्रकल्प हलविले करणे आवश्यक आहे. त्याच संगणकावरील वेगळ्या स्थानावर हलविण्यासाठी, धारिका वापर&gt; जतन करा प्रकल्प&gt; जतन करा प्रकल्प म्हणून .... जतन प्रकल्प म्हणून या मंद असू शकते तरी, समान नेटवर्क वरील दुसर्या संगणकावर प्रकल्प हस्तांतरित करण्यासाठी वापरले जाऊ शकते. तो हाताने प्रकल्प हलविण्यासाठी जतन आणि प्रकल्प बंद आवश्यक आहे, तर AUP धारिका &lt;my_project_name&gt; .AUP आणि _data फोल्डर &lt;my_project_name&gt; _data भिन्न फोल्डरमध्ये किंवा संगणक जा. .AUP धारिका आणि _data फोल्डर नवीन फोल्डर मध्ये एकत्र राहू याची खात्री करा.</t>
+  </si>
+  <si>
+    <t>आपण एक गीतपट्टा मध्ये फक्त एक लहान निवड फक्त त्या बदलेल्या डाटा लहान निवड डिस्कवर लिहिले आहे की, संपादन, तर. तथापि, हे अद्याप निवड डिस्क जागा वापर दुप्पट, आणि त्या निवड वर आणखी संपादन प्रतिनिधित्व (आपण प्रथम मागील संपादित करा पूर्ववत करा नाही तर) पुन्हा पुन्हा तीच रक्कम जोडते, आणि त्यामुळे वर.</t>
+  </si>
+  <si>
+    <t>आपण ओड्यासिटी स्वतः बाहेर पडू पर्यंत कट किंवा कॉपी करून ओड्यासिटी फीतबोर्ड स्थीत कोणतीही ध्वनी माहिती मात्र ठेवली जाते.</t>
+  </si>
+  <si>
+    <t>स्टोअर्स सर्व ओड्यासिटी गीतपट्टा आणि फीत, नाव, मोठेपणा लिफाफा गुण वाढणे आणि पॅन माहिती, इतर प्रकल्प माहिती एकत्र. ध्वनी मुद्रण आयात धारिका्स, व्युत्पन्न ध्वनी किंवा त्या कोणत्याही यांचे मिश्रण असू शकते. प्रकल्प आपल्या विस्तारित मल्टि-गीतपट्टा तुकडा जतन करण्यासाठी आणि नंतर आपण सोडले त्याच म्हणून परत एक सोयिस्कर मार्ग आहेत.</t>
+  </si>
+  <si>
+    <t>कारण प्रकल्प माहिती आकार इतरांना जटिल प्रकल्प ईमेल कठीण आणि कारण आपण प्रकल्प रचना अखंड राहील याची खात्री करण्यासाठी असलेली AUP धारिका आणि _data फोल्डर एक झिप धारिका पाठवणे आवश्यक आहे करू शकता. आपण प्रकल्प थोडासा Lossy ध्वनी पाठवत हरकत नसेल तर, धारिका आकार खूप प्रकल्प एक संकुचित प्रत अप zip करणे कमी केले जाऊ शकते. लक्षात ठेवा की झिप स्वरूप म्हणून प्रकल्प, नाव, गीतपट्टा नावं मेटामाहिती नाव, विश्वसनीय वर्ण एन्कोडिंग समर्थन देत नाही, फक्त z वर्ण झहीर किंवा एक वापर, संपूर्ण क्रमांक (0 ते 9), underscore किंवा हायफन-वजा (किंवा NUMPAD_SUBTRACT की वापरा).</t>
+  </si>
+  <si>
+    <t>ओड्यासिटी प्रकल्प एक उच्च स्तरीय AUP धारिका आणि ध्वनी धारिका (ध्वनी माहिती) असलेली संबंधित फोल्डर आहे. AUP एक ​​आवाज धारिका ते फक्त कसे फोल्डर ध्वनी धारिका प्रकल्प बांधकाम ओड्यासिटी सांगतो की सूचना सूची आहे नाही आहे. ओड्यासिटी प्रकल्प फक्त ओड्यासिटी वापरली जाऊ शकते.</t>
+  </si>
+  <si>
+    <t>ओड्यासिटी प्रकल्प स्वरूप सुसंगत नाही आणि कोणतेही अन्य ध्वनी अनुप्रयोग मध्ये उघडले जाऊ शकत नाही.</t>
+  </si>
+  <si>
+    <t>ओड्यासिटी सहसा उघडा AUP धारिका वारसा ओड्यासिटी 1.2.x मध्ये तयार करू शकता, परंतु प्रकल्प जतन करत 1.2.x. पुन्हा उघडण्यासाठी टाळण्यासाठी होईल</t>
+  </si>
+  <si>
+    <t>प्रकल्प (सुरक्षित) मध्ये uncompressed धारिका कॉपी करा: ही डीफॉल्ट सेटिंग आहे. धारिका संपूर्ण ध्वनी माहिती मध्ये ओड्यासिटी प्रती त्यांना आयात करताना.</t>
+  </si>
+  <si>
+    <t>ओड्यासिटी संदर्भ मूळ ध्वनी सामग्री आपण प्रत्यक्षात संपादन काही प्रकारचे अशा दूर एक तुकडा कापून किंवा कोणताही परिणाम वापरून म्हणून काम होईपर्यंत. त्यामुळे आपण संपादित करा&gt; निवड डुप्लिकेट तर, या प्रत्यक्षात संख्या .au _data फोल्डर धारिका वाढत नाही, आणि डिस्क स्पेस वापर वाढत नाही. संपादित करा&gt; उदाहरणार्थ कॉपी .au धारिकांची संख्या वाढ नाही, पण त्यामुळे या धारिका संपादित ओड्यासिटी फीतबोर्ड वर स्वतंत्रपणे कायम राखणे शक्य आहे&gt; पेस्ट करा.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -390,16 +749,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -422,14 +793,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -437,6 +839,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -483,7 +893,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -515,9 +925,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -549,6 +977,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -724,1386 +1170,1393 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="92.88671875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="73.21875" style="6" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="C2" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="C3" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="C4" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="C5" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="C6" s="7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="C7" s="7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="C8" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="C9" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="C10" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="C11" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="C12" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="C13" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="C14" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="C15" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="C16" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="C17" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="C18" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="C19" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="C20" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="C21" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="C22" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="C23" s="7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="C24" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="C25" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="C26" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="C27" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="C28" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="C29" s="7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="C30" s="7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C31" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="C31" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="C32" s="7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="C33" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="C34" s="7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="C35" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C36" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="C36" s="7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C37" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="C37" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C38" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="C38" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C39" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="C39" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C40" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="C40" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C41" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="C41" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C42" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="C42" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C43" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="C43" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C44" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="C44" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C45" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="C45" s="7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C46" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+      <c r="C46" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C47" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="C47" s="5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C48" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="C48" s="7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C49" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="C49" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C50" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+      <c r="C50" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C51" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="C51" s="7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C52" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="C52" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C53" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+      <c r="C53" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C54" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+      <c r="C54" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C55" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+      <c r="C55" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C56" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+      <c r="C56" s="7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C57" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="C57" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C58" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+      <c r="C58" s="7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C59" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+      <c r="C59" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C60" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+      <c r="C60" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C61" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+      <c r="C61" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C62" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+      <c r="C62" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C63" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+      <c r="C63" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C64" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+      <c r="C64" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C65" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+      <c r="C65" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C66" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+      <c r="C66" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C67" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+      <c r="C67" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C68" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+      <c r="C68" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C69" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+      <c r="C69" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C70" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+      <c r="C70" s="7" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C71" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+      <c r="C71" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C72" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+      <c r="C72" s="7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C73" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+      <c r="C73" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C74" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+      <c r="C74" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C75" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+      <c r="C75" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C76" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="C76" s="7" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C77" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+      <c r="C77" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C78" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+      <c r="C78" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C79" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+      <c r="C79" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C80" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+      <c r="C80" s="7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C81" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+      <c r="C81" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C82" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+      <c r="C82" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C83" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+      <c r="C83" s="7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C84" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+      <c r="C84" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C85" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+      <c r="C85" s="7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C86" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+      <c r="C86" s="7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C87" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+      <c r="C87" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C88" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+      <c r="C88" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C89" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+      <c r="C89" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C90" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+      <c r="C90" s="7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C91" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+      <c r="C91" s="7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C92" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+      <c r="C92" s="7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C93" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+      <c r="C93" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C94" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+      <c r="C94" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C95" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+      <c r="C95" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C96" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="C96" s="7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C97" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+      <c r="C97" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C98" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+      <c r="C98" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C99" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+      <c r="C99" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C100" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="C100" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C101" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+      <c r="C101" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C102" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="C102" s="7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C103" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="C103" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C104" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
+      <c r="C104" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>103</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C105" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
+      <c r="C105" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C106" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
+      <c r="C106" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C107" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
+      <c r="C107" s="7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C108" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
+      <c r="C108" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C109" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
+      <c r="C109" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C110" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
+      <c r="C110" s="7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C111" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
+      <c r="C111" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>110</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C112" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
+      <c r="C112" s="7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>111</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C113" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
+      <c r="C113" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>112</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C114" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
+      <c r="C114" s="7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>113</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C115" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
+      <c r="C115" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>114</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C116" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
+      <c r="C116" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>115</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C117" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
+      <c r="C117" s="7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>116</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C118" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
+      <c r="C118" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>117</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C119" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
+      <c r="C119" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>118</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C120" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
+      <c r="C120" s="7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>119</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C121" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
+      <c r="C121" s="7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>120</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C122" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
+      <c r="C122" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>121</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B123" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C123" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
+      <c r="C123" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>122</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B124" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C124" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
+      <c r="C124" s="7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>123</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B125" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C125" t="s">
-        <v>117</v>
+      <c r="C125" s="7" t="s">
+        <v>225</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel/audacity_projects.xlsx
+++ b/Excel/audacity_projects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Parimal\Documents\GitHub\audacity-mr\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF9F0A7-B6BC-4C70-8866-DEF30C93F8D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD88C57-25B9-40C7-9EB4-CA11A0D979A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="235">
   <si>
     <t>English</t>
   </si>
@@ -105,21 +105,9 @@
     <t>The structure of a saved Audacity project is:</t>
   </si>
   <si>
-    <t>An AUP project file - the name of the project followed by ".aup", for example</t>
-  </si>
-  <si>
-    <t>"my_song.aup"</t>
-  </si>
-  <si>
-    <t>A _data folder with the same project name and in the same folder as the .aup file, for example "my_song_data"</t>
-  </si>
-  <si>
     <t>Within that _data folder, a sub-folder structure with lots of little AU files which are individual segments of the audio data.</t>
   </si>
   <si>
-    <t>Note that default behavior on Windows and Mac is to hide certain file extensions ; if this applies, the .aup file will only appear as "my_song" in the computer. On Windows, the .aup extension will be hidden if Audacity was installed from the .exe installer and "Hide file extensions for known file types" remains checked in Windows Explorer. You can unhide extensions on Windows by following these instructions.</t>
-  </si>
-  <si>
     <t>The project file describes how Audacity links these AU files together to make up the clips and tracks in the project; it also contains gain, pan and envelope information, data to manage the</t>
   </si>
   <si>
@@ -174,9 +162,6 @@
     <t>There are three main commands for saving projects:</t>
   </si>
   <si>
-    <t>File &gt; Save Project &gt; Save Project saves a standard project as an AUP project file (a file with ".aup" after its name) and a _data folder containing the actual audio. If the project does not have any unsaved changes (for example, if the project is empty or you just saved it), "Save Project" will be grayed out.</t>
-  </si>
-  <si>
     <t>File &gt; Save Project &gt; Save Lossless Copy of Project... similarly saves a standard project as an AUP file and _data folder. It is for saving an</t>
   </si>
   <si>
@@ -237,9 +222,6 @@
     <t>Opening an Audacity project</t>
   </si>
   <si>
-    <t>When opening an Audacity project always use File &gt; Open or File &gt; Recent Files to open the "my_song.aup".</t>
-  </si>
-  <si>
     <t>Do not attempt to open, import or manipulate any individual AU files.</t>
   </si>
   <si>
@@ -249,484 +231,508 @@
     <t>Older Projects</t>
   </si>
   <si>
+    <t>Projects created in legacy Audacity 1.1.x or earlier can only be opened by exporting each audio track as WAV in the legacy version of Audacity, then import the WAV files into the current version of Audacity.</t>
+  </si>
+  <si>
+    <t>When importing uncompressed audio files, such as WAV or AIFF, Audacity has an import preference that lets you save disk space and edit the files almost immediately by reading them directly from their original source location, rather than copying them into the project. In that case Audacity will reference the original file directly (but not make any changes to that audio file unless you export over it). If you import the files by reading them directly, you must not at that point rename, move or delete those original source files and must not modify them outside Audacity.</t>
+  </si>
+  <si>
+    <t>When you first import a file by any means, for example by using File &gt; Import or by dragging the file in, the preference is automatically set to "copy in" and a Warning dialog is presented explaining the difference between copy-in and read-directly and asking which method should be used for this import. You can opt for Audacity to use your current choice in future and not ask again, but you can change your choice at any time in Import - Export Preferences.</t>
+  </si>
+  <si>
+    <t>When a project is saved and the "faster" option has been chosen, Audacity will display a dialog box showing these dependencies and give the option of copying all of the audio data into the project. This makes the project independent of external audio files and makes it safe to delete, move, rename or modify the original audio files if necessary. The Projects Preferences settings can be modified so that Audacity will not ask when saving a project but will always either "never copy" the dependent audio files, or "always copy" them into the project.</t>
+  </si>
+  <si>
+    <t>At any time it is possible to click on Help &gt; Diagnostics &gt; Check Dependencies... to see if the project depends on any external files.</t>
+  </si>
+  <si>
+    <t>Import settings: "faster" versus "safer"</t>
+  </si>
+  <si>
+    <t>There are two settings that determine how Audacity imports a WAV or AIFF file.</t>
+  </si>
+  <si>
+    <t>Copy uncompressed files into the project (safer): This is the default setting. Audacity copies in the entire audio data of files when importing them.</t>
+  </si>
+  <si>
+    <t>Choose this "Safer" option if:</t>
+  </si>
+  <si>
+    <t>Plenty of disk space is available and the time taken to import is not crucial</t>
+  </si>
+  <si>
+    <t>You want peace of mind that the project will never depend on other files</t>
+  </si>
+  <si>
+    <t>The Audacity project is to be opened on another computer or sent to someone else (if you only want to send an exported audio file to someone else, you do not need to choose "Safer").</t>
+  </si>
+  <si>
+    <t>Read uncompressed files from the original location (faster): Audacity uses On-Demand Loading. This imports files much faster by only writing small AUF "summary" files that reference the imported file and so depend on that imported file remaining available. Audio data is only copied in for any parts of the file that you subsequently edit. If you apply an edit to the entire audio of the imported file, Audacity will at that point copy the entire audio data in, so providing you do not undo that edit of the entire audio, the project will henceforward no longer depend on the imported file.Note that if you overwrite a read-directly WAV or AIFF file by exporting to the same file name and location, Audacity renames the imported file with a suffix containing "-old" and a number, then this "-old" file becomes the dependent file for the project. Do not delete "-old" file(s) until you are happy with the exported file and no longer require the Audacity project.</t>
+  </si>
+  <si>
+    <t>Do not choose the "Faster" option unless you completely understand the implications. If you move, rename or delete the imported file, the project data may be lost.</t>
+  </si>
+  <si>
+    <t>Moving, renaming or sending an Audacity project</t>
+  </si>
+  <si>
+    <t>Moving or renaming Audacity projects can be tricky due to their complex structure as described above.</t>
+  </si>
+  <si>
+    <t>Any project can be moved on the same computer, or renamed, by making a copy of the project with either the File &gt; Save Project &gt; Save Lossless Copy of Project... or the File &gt; Save Project &gt; Save Project As... command.</t>
+  </si>
+  <si>
+    <t>Sending somebody just an AUP file does not send them an Audacity project - to do that you would need to send the _data folder containing the small AU files too.</t>
+  </si>
+  <si>
+    <t>For a simple single track project (that does not have gain or pan settings, or use an envelope to adjust the volume) one possible solution is to not move the project. Instead, use the File &gt; Export &gt; Export Audio... command to export a WAV file. This WAV file can then be copied to another computer (such as by using a USB flash drive), then the File &gt; Import command can be used to load the WAV file into an Audacity project. Alternatively the WAV file can be sent by email or via a file sharing website (if the WAV is not too large for email) to someone else who can import it into an Audacity project on their computer.</t>
+  </si>
+  <si>
+    <t>For a project that has multiple tracks, or a single-track project that has gain or pan settings or uses an envelope to adjust the volume of the track, the entire project will need to be moved. To move to a different location on the same computer, use File &gt; Save Project &gt; Save Project As.... Save Project As can also be used to transfer the project to another computer on the same network, though this can be slow. If it is necessary to move the project by hand, save and close the project then move the AUP file &lt;my_project_name&gt;.AUP and the _data folder &lt;my_project_name&gt;_data to a different folder or computer. Ensure that the .AUP file and _data folder remain together in the new folder.</t>
+  </si>
+  <si>
+    <t>Never rename a project by hand in any folder. Doing so will corrupt the project.</t>
+  </si>
+  <si>
+    <t>If moving the project to a different computer, the project must not depend on external audio files because the actual (absolute) path to these is stored in the AUP file. Use the Help &gt; Diagnostics &gt; Check Dependencies... command to check whether the project depends on any external files.</t>
+  </si>
+  <si>
+    <t>If it does, the dialog box will give you the option to make a copy of those files within the project.</t>
+  </si>
+  <si>
+    <t>It can be difficult to email complex projects to others because of the size of the project data and because you must send a ZIP file containing AUP file and _data folder to ensure the project structure remains intact. If you do not mind sending slightly lossy audio in the project, the file size can be greatly reduced by zipping up a compressed copy of the project. Note that ZIP formats do not support reliable character encoding, so for the name of the project, labels, track names or metadata, only use A to Z or a to z characters, whole numbers (0 to 9), underscore or hyphen-minus (or use the NUMPAD_SUBTRACT key).</t>
+  </si>
+  <si>
+    <t>See also Sending your work to others and this FAQ.</t>
+  </si>
+  <si>
+    <t>Regular backups should if possible be made to one or two devices other than the device the current project is stored on, as computer hard drives can fail, destroying all data. For example, backups could be made to another internal drive on the computer, or ideally to an external USB drive or uploaded to an online (cloud) storage service.</t>
+  </si>
+  <si>
+    <t>For advice on backing up Audacity projects please see this FAQ.</t>
+  </si>
+  <si>
+    <t>If you have just made a recording it is strongly recommended that you immediately export your audio using File &gt; Export &gt; Export Audio... to WAV or AIFF (ideally to an external drive) as a safety copy before you start editing the project.</t>
+  </si>
+  <si>
+    <t>There is no File &gt; Delete Project command in Audacity; therefore to delete a project to free up disk space it is necessary to make the deletion manually.</t>
+  </si>
+  <si>
+    <t>You will need to delete both the AUP file and its associated, identically named _data folder.</t>
+  </si>
+  <si>
+    <t>'=</t>
+  </si>
+  <si>
+    <t>Note that this will not remove the listing of your project under File &gt; Recent Files.... After deleting the project you can choose the AUP entry for that project in the Recent Files list in order to remove the entry.</t>
+  </si>
+  <si>
+    <t>As soon as you open a project window and change the window contents, whether this is a previously saved project or you are creating a new project, Audacity writes a temporary reference file for that project called an ".autosave" file. This allows Audacity to automatically recover unsaved changes in the event of a crash or power loss.</t>
+  </si>
+  <si>
+    <t>When you use Save Project, Save Lossless Copy of Project... or Save Project As... there are no longer unsaved changes, so the ".autosave" file is deleted until fresh unsaved changes are made. The file is stored in the "AutoSave" folder inside Audacity's folder for application data.</t>
+  </si>
+  <si>
+    <t>The file is of identical internal structure to an AUP project file, but is not readable by a text editor.</t>
+  </si>
+  <si>
+    <t>Most changes you make to the audio data, such as adding or removing audio or applying an effect to it, trigger writing the ".autosave" file. A change to the position of the selection or editing cursor does not write to the ".autosave" file, and is not captured when closing the project, unless the project is already "dirty" (as shown by Save Project in the submenu being not grayed out and being clickable).</t>
+  </si>
+  <si>
+    <t>This can be particularly important if you are editing a large project.</t>
+  </si>
+  <si>
+    <t>Audacity references the original audio material until you actually perform some kind of edit on it, such as cutting a piece away or using any effect on it. So if you Edit &gt; Duplicate a selection, this doesn't actually increase the number of .au files in the _data folder, and doesn't increase disk space usage. Edit &gt; Copy for example does increase the number of .au files, but this is so these files can be retained separately on the Audacity clipboard for Edit &gt; Paste.</t>
+  </si>
+  <si>
+    <t>Once you perform an edit, the original unchanged audio is retained, along with the changed audio. This is so you can use Edit &gt; Undo and Edit &gt; Redo to try out edits and undo them if they do not sound as you wanted.</t>
+  </si>
+  <si>
+    <t>If you edit just a small selection in a track, only that small selection of changed data is written to disk. Nonetheless, this still represents a doubling of disk space usage for that selection, and a further edit on that selection (unless you first undo the previous edit) adds the same amount again, and so on.</t>
+  </si>
+  <si>
+    <t>For example, a five minute stereo recording at default quality settings takes 100 MB of space. If you edit the whole length of that recording, disk space usage will increase to 200 MB.</t>
+  </si>
+  <si>
+    <t>If disk space is a problem while working on a project, you can use View &gt; History... to discard Undo levels and reclaim disk space. Note that once you close the project by using File &gt; Close or exiting Audacity, the audio data needed for Undo/Redo is discarded, so as to make project storage as economical as possible.</t>
+  </si>
+  <si>
+    <t>Any audio data placed on the Audacity clipboard by Cut or Copy is however retained until you exit Audacity itself.</t>
+  </si>
+  <si>
+    <t>येथे जा: सुचालन, शोधयंत्र</t>
+  </si>
+  <si>
+    <t>सामग्री</t>
+  </si>
+  <si>
+    <t>प्रकल्प प्रती जतन करीत आहे</t>
+  </si>
+  <si>
+    <t>प्रकल्प अवलंबने</t>
+  </si>
+  <si>
+    <t>स्वयंचलितरित्या जतन आणि पुनर्प्राप्ती</t>
+  </si>
+  <si>
+    <t>डिस्क स्पेस वापर</t>
+  </si>
+  <si>
+    <t>तेथे प्रकल्प जतन करण्यासाठी तीन मुख्य आदेश आहेत:</t>
+  </si>
+  <si>
+    <t>(एक ओळखले राज्यात आपल्या प्रकल्पाचा सुरक्षा बॅकअप प्रत आयोजित उदाहरणार्थ) विद्यमान नवीन नाव प्रकल्प सद्यस्थितीत प्रकल्प एक नवीन प्रत तयार</t>
+  </si>
+  <si>
+    <t>चालू प्रकल्प वर कार्य सुरू ठेवण्यासाठी आपण खुले राहील.</t>
+  </si>
+  <si>
+    <t>हे आपण त्यावर काम म्हणून एक प्रकल्प एक सुरक्षा बॅकअप प्रत तयार करण्यासाठी सुरक्षित आणि शिफारस केलेला मार्ग आहे. हा प्रकल्प एका बॅकअप प्रत म्हणून एकतर सेवा शकते, किंवा राज्य एक विशिष्ट तारीख आणि वेळ होती प्रकल्प अनेक वाढीव प्रती एक म्हणून. हा आदेश वापरून वर कार्य सुरू ठेवण्यासाठी आपण सक्षम आपल्या वर्तमान प्रकल्प उघडलेले असेल "म्हणून जतन करा ..." आवडले नाही.</t>
+  </si>
+  <si>
+    <t>प्रकल्प म्हणून जतन करा</t>
+  </si>
+  <si>
+    <t>हे एक नवीन नाव किंवा स्थान एक प्रकल्प एक प्रत करण्यासाठी एक मार्ग आहे.</t>
+  </si>
+  <si>
+    <t>आपण "जतन करा प्रकल्प म्हणून" एक नवीन नाव, प्रकल्प विंडो नंतर प्रकल्प नाव दाखवतो, तर आपण फक्त "म्हणून जतन". प्रकल्प विंडो पूर्वी नाव म्हणून त्याच्या शेवटी जतन केलेला राज्यात बंद आहे, परंतु आवश्यक म्हणून काबीज केले जाऊ शकते प्रकल्प प्रदर्शित.</t>
+  </si>
+  <si>
+    <t>जुने प्रकल्प</t>
+  </si>
+  <si>
+    <t>या "सुरक्षित" पर्याय निवडा:</t>
+  </si>
+  <si>
+    <t>डिस्क जागा भरपूर उपलब्ध आहे आणि आयात नेले वेळ महत्वाचा नाही</t>
+  </si>
+  <si>
+    <t>इतरांना आणि या जाणारे आपले कार्य पाठवत आहे पहा.</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>आपण एका मोठ्या प्रकल्प संपादित करीत आहेत तर हे महत्वाचे असू शकते.</t>
+  </si>
+  <si>
+    <t>ओड्यासिटी प्रकल्प व्यवस्थापकीय</t>
+  </si>
+  <si>
+    <t>एक ओड्यासिटी प्रकल्प जतन करीत आहे</t>
+  </si>
+  <si>
+    <t>एक ओड्यासिटी प्रकल्प उघडत</t>
+  </si>
+  <si>
+    <t>ओड्यासिटी प्रकल्प बॅक अप घेत आहे</t>
+  </si>
+  <si>
+    <t>एक ओड्यासिटी प्रकल्प हटवित</t>
+  </si>
+  <si>
+    <t>ओड्यासिटी प्रकल्प स्वरूप</t>
+  </si>
+  <si>
+    <t>एक जतन ओड्यासिटी अशी या प्रकल्पाची रचना आहे:</t>
+  </si>
+  <si>
+    <t>आपल्या ओड्यासिटी प्रकल्प आनंदी ठेवण्यासाठी चार नियम:</t>
+  </si>
+  <si>
+    <t>एक ओड्यासिटी प्रकल्प बचत फायदे आहेत:</t>
+  </si>
+  <si>
+    <t>हलवित, पुनर्नामित किंवा ओड्यासिटी प्रकल्प पाठवून</t>
+  </si>
+  <si>
+    <t>वर वर्णन हलवून किंवा ओड्यासिटी प्रकल्प पुनर्नामित त्यांच्या जटिल रचना झाल्यामुळे अवघड असू शकते.</t>
+  </si>
+  <si>
+    <t>ओड्यासिटी प्रकल्प अप टेकू सल्ला कृपया हे FAQ पहा.</t>
+  </si>
+  <si>
+    <t>आपण संपादन सुरू एकदा, मूळ जसाच्या तसा ध्वनी बदललेल्या ध्वनी सोबत ठेवली जाते. त्यामुळे आपण संपादने बाहेर प्रयत्न संपादित करा&gt; पूर्ववत करा आणि संपादित करा&gt; पुन्हा वापरता आणि ते पूर्ववत करू शकत आपल्याला पाहिजे ते आवाज नाही तर हे आहे.</t>
+  </si>
+  <si>
+    <t>एक ध्वनी धारिका करण्यासाठी (जसे की</t>
+  </si>
+  <si>
+    <t>कोणत्याही वेळी मदत&gt; निदान वर क्लिक करा&gt; अवलंबने तपासा ... प्रकल्प कोणत्याही बाह्य धारिका अवलंबून असल्यास पाहण्यासाठी करणे शक्य आहे.</t>
+  </si>
+  <si>
+    <t>आपल्याला मन: शांती करू इच्छित असलेला प्रकल्प इतर धारिका्स अवलंबून नाही की</t>
+  </si>
+  <si>
+    <t>ओड्यासिटी प्रकल्प दुसर्या संगणकावर उघडल्या किंवा कोणीतरी पाठविला जाईल आहे (आपण फक्त कोणीतरी निर्यातीत ध्वनी धारिका पाठवू इच्छित असल्यास, आपण "सुरक्षित" निवडा करण्याची गरज नाही).</t>
+  </si>
+  <si>
+    <t>तो नाही तर, संवाद बॉक्स प्रकल्प आत त्या धारिकांच्या एक प्रत तयार करू पर्याय देईल.</t>
+  </si>
+  <si>
+    <t>संपादन दरम्यान वैयक्तिक AU धारिका अद्यतनित करून, ओड्यासिटी ध्वनी बदलू किंवा एक ठिकाणाहून दुसर्या माहिती मोठ्या प्रमाणात नक्कल न करता प्रकल्प सुमारे हलवू शकता.</t>
+  </si>
+  <si>
+    <t>लांब प्रकल्प माहिती भरपूर असतात. प्रकल्प ओड्यासिटी विद्यमान किंवा संगणक बंद करण्यापूर्वी पूर्णपणे जतन केले आहे याची खात्री करा. आहे, तर प्रकल्प जतन करण्यासाठी प्रगती संवाद, तो बंद करण्यापूर्वी प्रतीक्षा. तळाशी शो स्थिती बार संदेश प्रकल्प जतन केले गेले आहे, तेव्हा.</t>
+  </si>
+  <si>
+    <t>आपण पूर्णपणे अभिप्रेत अर्थ समजून नाही तोपर्यंत "जलद" पर्याय निवडू नका. आपण हलविल्यास, पुनर्नामित करा किंवा आयात धारिका हटवा, प्रकल्प माहिती गमावला जाऊ शकतो.</t>
+  </si>
+  <si>
+    <t>अशा धारिका ".autosave" लेखन ट्रिगर जोडून किंवा ध्वनी काढून टाकणे किंवा त्यावर परिणाम अर्ज, म्हणून आपण ध्वनी माहितीमध्ये सर्वाधिक बदल. किंवा निवड स्थानावर बदल कर्सर संपादित ".autosave" धारिका लिहू शकत नाही, आणि प्रकल्प बंद करताना पकडले नाही, प्रकल्प सबमेनूसह नाही असल्याने जतन प्रकल्प करून दर्शविल्याप्रमाणे "गलिच्छ" (आधीच आहे तोपर्यंत राखाडी आणि क्लिक जात).</t>
+  </si>
+  <si>
+    <t>एका प्रकल्पावर काम करत असताना डिस्क जागा एक समस्या आहे, तर, आपण पूर्ववत करा पातळी आणि पुन्हा हक्क डिस्क जागा टाकून पहा&gt; इतिहास वापरू शकता .... लक्षात ठेवा की आपण&gt; धारिका वापरून बंद करा किंवा ओड्यासिटी विद्यमान प्रकल्प बंद एकदा, पूर्ववत / पुन्हा आवश्यक ध्वनी माहिती त्यामुळे शक्य आर्थिकदृष्ट्या प्रकल्प स्टोरेज म्हणून, काढून टाकली जाते.</t>
+  </si>
+  <si>
+    <t>जलद लोड, अगदी अनेक लांब गीतपट्टा</t>
+  </si>
+  <si>
+    <t>ओड्यासिटी प्रकल्प स्वरूप सुसंगत नाही आणि कोणतेही अन्य ध्वनी अनुप्रयोग मध्ये उघडले जाऊ शकत नाही.</t>
+  </si>
+  <si>
+    <t>ओड्यासिटी प्रकल्प व्यवस्थापकीय - ओड्यासिटी माहितीपुस्तिका</t>
+  </si>
+  <si>
+    <t>ओड्यासिटी विकास माहितीपुस्तिका पासून</t>
+  </si>
+  <si>
+    <t>ओड्यासिटी मधील सर्व संपादन प्रकल्प म्हणून केले जाते. तो एक प्रकल्प म्हणजे एकच ध्वनी धारिका नसून ओड्यासिटी द्वारे व्यवस्थापित धारीकांचा जटिल संच आहे हे लक्षात घेणे महत्वाचे आहे.</t>
+  </si>
+  <si>
+    <t>सर्व ओड्यासिटी गीतपट्टा आणि फीत, नाव, मोठेपणा लिफाफा गुण वाढणे आणि पॅन माहिती, इतर प्रकल्प माहिती एकत्र जतन करणे. ध्वनी मुद्रण आयात धारिका, व्युत्पन्न ध्वनी किंवा त्या कोणत्याही यांचे मिश्रण असू शकते. प्रकल्प आपल्या विस्तारित बहु-गीतपट्टा तुकडा जतन करण्यासाठी आणि नंतर आपण सोडले त्याच म्हणून परत एक सोयिस्कर मार्ग आहेत.</t>
+  </si>
+  <si>
+    <t>प्रकल्प धारिका ओड्यासिटी प्रकल्प फिती आणि गीतपट्टा अप करण्यासाठी एकत्र या AU धारिका दुवे कसे वर्णन; तो देखील वाढणे, पॅन आणि लिफाफा माहिती समाविष्टीत आहे, व्यवस्थापित करण्यासाठी माहिती</t>
+  </si>
+  <si>
+    <t>तरंग प्रदर्शन आणि कोणत्याही अवलंबून ध्वनी धारिका दुवे असतो त्यांच्या स्रोत स्थान थेट वाचली आहे.</t>
+  </si>
+  <si>
+    <t>एक संकुचित ध्वनी धारिका आयात करताना "मूळ थेट वाचा संकुचित धारिका (जलद)" पर्याय आयात / निर्यात प्राधान्ये चेक हलवा नाही, आधिकार नोंद किंवा आपण प्रथम ओड्यासिटी प्रकल्पाची प्रत नाही तोपर्यंत धारिका हटवा. &gt; मदत&gt; निदान पहा अवलंबने तपासा ... अधिक माहितीसाठी.</t>
+  </si>
+  <si>
+    <t>की _data निर्देशिका, ध्वनी माहिती वैयक्तिक विभागाच्या आहेत थोडे AU धारिका बरेच उप-निर्देशिका संरचना आत आहेत.</t>
+  </si>
+  <si>
+    <t>कधीही हलवा, हटविण्यासाठी किंवा _data निर्देशिकामधील धारिका किंवा निर्देशिका कोणत्याही नाव बदला.</t>
+  </si>
+  <si>
+    <t>आपण आपल्या योजनेचे नाव बदलणे करू इच्छित असल्यास, धारिका&gt; एक प्रकल्प जतन करा&gt; प्रकल्प जतन करा निराश प्रत करा ... किंवा धारिका&gt; प्रकल्प जतन करा &gt; जतन करा प्रकल्प म्हणून वापर (उदाहरणार्थ, एका विशिष्ट टप्प्यावर एक स्नॅपशॉट जतन करण्यासाठी) ... आदेश.</t>
+  </si>
+  <si>
+    <t>जतन ओड्यासिटी प्रकल्प फक्त उघडले आणि ओड्यासिटी वापरली जाऊ शकते. आपण आपल्या संगीत उपकरणे चालवणार किंवा CD बर्ण करण्यासाठी एक ध्वनी धारिका इच्छित असल्यास, निर्यात आदेशचा वापर करा.</t>
+  </si>
+  <si>
+    <t>एक प्रकल्प जतन करीत आहे अपूर्ण काम आणि पुन्हा-उघडा तो नक्की म्हणून नंतर ओड्यासिटी मध्ये जतन सर्व संपादने आणि मुद्रण / आयात गीतपट्टा जतन करतो देते. टीप पूर्ववत इतिहास प्रकल्प आणि प्रकल्प आपण नंतर प्रकल्प पुन्हा उघडता तेव्हा इतिहास सुरू पुन्हा म्हणून जतन केला नाही काळजीपूर्वक आहे.</t>
+  </si>
+  <si>
+    <t>ध्वनी माहिती नेहमी निराश गुणवत्ता संरक्षित केला जातो. आपण आधीच MP3 सारख्या हानिकारक ध्वनी स्वरूप निर्यात पण पुढील प्रकल्प संपादित करण्यासाठी निर्णय असेल तर हे उपयुक्त आहे. संपादन आणि पुन्हा निर्यात प्रकल्प मागे निर्यात MP3 पुन्हा संपादित अतिरिक्त गुणवत्ता नुकसान वाचवतो.</t>
+  </si>
+  <si>
+    <t>पुन्हा आयात किंवा पुन्हा मुद्रण धारिका करण्याची गरज नाही</t>
+  </si>
+  <si>
+    <t>एक प्रकल्प जतन करण्याची गरज नाही तोपर्यंत तो तात्पुरत्या प्रकल्प धारिका काम करणे शक्य आहे आणि नंतर फक्त धारिका&gt; निर्यात&gt; निर्यात ध्वनी ... आवश्यक ध्वनी धारिका निर्यात करण्यासाठी वापरता आवश्यक आहे. प्रकल्प जतन न केल्यास, आवश्यक ध्वनी माहिती अनुप्रयोग विद्यमान पर्यंत प्राधान्ये पुस्तिका विभागात निर्दिष्ट तात्पुरती निर्देशिका मध्ये साठवली जाते. त्या ठिकाणी, ओड्यासिटी एक प्रकल्प जतन निवड देते किंवा नाही.</t>
+  </si>
+  <si>
+    <t>निराश जतन करा प्रत ओड्यासिटी विपरीत त्याच्या शेवटी-बंद केलेला राज्यात वर्तमान प्रकल्प बंद करा आणि वर्तमान स्थितीत नवीन प्रकल्प उघडेल.</t>
+  </si>
+  <si>
+    <t>प्रकल्प जतन करा निराश प्रत</t>
+  </si>
+  <si>
+    <t>प्रवेश:&gt; जतन करा प्रकल्प&gt; प्रकल्प जतन करा निराश प्रत करा ...</t>
+  </si>
+  <si>
+    <t>प्रकल्प संकुचित प्रत जतन करा</t>
+  </si>
+  <si>
+    <t>आपण (इंटरनेट एक प्रकल्प पाठवू उदाहरणार्थ) जागा जतन करणे आवश्यक असल्यास आपल्याला धारिका वापरून आपल्या प्रकल्पाचा संकुचित आवृत्ती जतन करू शकता&gt; जतन करा प्रकल्प&gt; प्रकल्प जतन करा संकुचित प्रत ....</t>
+  </si>
+  <si>
+    <t>या हानिकारक, संकुचित या चरित्रामध्ये स्वरूपात आपल्या प्रकल्पाचा एक प्रत जतन करेल, प्रत्येक गीतपट्टा स्वतंत्र ओजीजी(OGG) धारिका म्हणून जतन केले जात आहे.</t>
+  </si>
+  <si>
+    <t>उघडा आयात किंवा हाताळू कोणतीही व्यक्ती एयु(AU) धारिका प्रयत्न करू नका.</t>
+  </si>
+  <si>
+    <t>एक ओड्यासिटी प्रकल्प म्हणून जतन केले नाही जे ध्वनी धारिका&gt; आयात करा किंवा धारिका ओढून वापरून आयात करणे आवश्यक आहे. आयात आदेश आधीच उघडा प्रकल्प ध्वनी माहिती आयात करण्यासाठी वापरले जाते.</t>
+  </si>
+  <si>
+    <t>ओड्यासिटी प्रकल्प एक उच्च स्तरीय एयुपी(AUP) धारिका आणि ध्वनी धारिका (ध्वनी माहिती) असलेली संबंधित निर्देशिका आहे. एयुपी(AUP) एक ​​आवाज धारिका ते फक्त कसे निर्देशिका ध्वनी धारिका प्रकल्प बांधकाम ओड्यासिटी सांगतो की सूचना सूची आहे नाही आहे. ओड्यासिटी प्रकल्प फक्त ओड्यासिटी मध्येच वापरली जाऊ शकते.</t>
+  </si>
+  <si>
+    <t>एक एयुपी(AUP) प्रोजेक्ट धारिका - प्रकल्प नाव ".एयुपी(AUP)" त्यानंतर, उदाहरणार्थ</t>
+  </si>
+  <si>
+    <t>"My_song.एयुपी(AUP)"</t>
+  </si>
+  <si>
+    <t>लक्षात ठेवा विंडोज व Mac वर मुलभूत वर्तन काही निश्चित धारिका विस्तार लपविण्यासाठी आहे; या लागू होत असल्यास, .एयुपी(AUP) धारिका फक्त संगणक मध्ये "my_song" म्हणून दिसेल. ओड्यासिटी .exe इंस्टॉलर आणि "ज्ञात धारिका प्रकार करीता लपवा धारिका विस्तार" राहते विंडोज एक्सप्लोरर मध्ये चेक वरून स्थापित केले होते तर विंडोज वर, .एयुपी(AUP) विस्तार लपविला जाईल. आपण या सूचनांचे अनुसरण करून विंडोज विस्तार समक्ष आणू शकतात.</t>
+  </si>
+  <si>
+    <t>एयुपी(AUP) धारिका XML स्वरूपात आहे आणि आवश्यक असल्यास एक टेक्स्ट एडिटर मध्ये उघडली जाऊ शकतात. ऑस्ट्रेलिया धारिका एक निराश, संकुचित स्वरूपात साठवले जातात. त्यांचे पूर्वनियोजित आकार १ एमबी किंवा कमी आहे. या ओड्यासिटी प्रकल्प स्वरूप ओड्यासिटी जलद ध्वनी संपादन करण्यासाठी योजलेले आहे.</t>
+  </si>
+  <si>
+    <t>एयुपी(AUP) धारिका किंवा हाताने _data निर्देशिका पुनर्नामित करू नका.</t>
+  </si>
+  <si>
+    <t>नेहमी एकत्र एकाच पुस्तिकामध्ये (निर्देशिका) मध्ये एयुपी(AUP) धारिका आणि _data निर्देशिका ठेवा.</t>
+  </si>
+  <si>
+    <t>धारिका&gt; प्रकल्प जतन करा&gt; जतन करा प्रकल्प एक एयुपी(AUP) प्रकल्प धारिका म्हणून एक मानक प्रकल्प आणि प्रत्यक्ष ध्वनी असलेले निर्देशिका एक _data (त्याचे नाव नंतर ".एयुपी(AUP)" एक धारिका) वाचवतो. प्रकल्प जतन न केलेले बदल नाही तर (उदाहरणार्थ, प्रकल्प रिक्त आहे किंवा आपण फक्त तो जतन केला असेल तर), "जतन करा प्रकल्प" राखाडी जाईल.</t>
+  </si>
+  <si>
+    <t>धारिका कोणत्याही प्रकारच्या बचत म्हणून, ते कार्य प्रणालीसाठी आरक्षित आहेत तर काही वर्ण एयुपी(AUP) धारिका नाव वापरले जाऊ शकत नाही. निषिद्ध वर्ण आमच्या माहिती पहा.</t>
+  </si>
+  <si>
+    <t>एक ओड्यासिटी प्रकल्प जतन करताना तो धारिका वापरण्याची साधारणपणे सर्वात सोपा आहे&gt; जतन करा प्रकल्प आदेश (Mac वर किंवा ⌘ + S) Ctrl + S पूर्वनियोजित आडमार्ग आहे.जर जतन एक प्रकल्प पुन्हा केले आणखी बदल येत, "जतन करा प्रकल्प" नंतर एयुपी(AUP) धारिका आणि _data निर्देशिका शांतपणे प्रॉम्प्ट तुम्हाला त्रास न अद्यतनित करा.</t>
+  </si>
+  <si>
+    <t>आपण कार्य प्रणालीच्या प्रत वापर कधीही आणि मूळ प्रकल्प म्हणून समान निर्देशिका मध्ये प्रकल्प एयुपी(AUP) धारिका एक प्रत आणि _data निर्देशिका करण्यासाठी पेस्ट करा. आपल्या हातात एक प्रत करणे आवश्यक आहे, तर जतन करा आणि बंद प्रथम तत्कालीन एयुपी(AUP) धारिका आणि _data निर्देशिका प्रत आणि एका भिन्न निर्देशिकामध्ये पेस्ट करा. या मूळ धारिका याची खात्री आणि निर्देशिका नावे कायम ठेवली जातात.</t>
+  </si>
+  <si>
+    <t>एक ओड्यासिटी प्रकल्प नेहमी धारिका वापर उघडताना&gt; उघडा किंवा धारिका&gt; अलीकडील धारिका "my_song.एयुपी(AUP)" उघडण्यासाठी.</t>
+  </si>
+  <si>
+    <t>ओड्यासिटी सहसा उघडा एयुपी(एयुपी(AUP)) धारिका वारसा ओड्यासिटी १.२.क्ष(1.2.x) मध्ये तयार करू शकता, परंतु प्रकल्प जतन करत १.२.क्ष(1.2.x) पुन्हा उघडण्यासाठी टाळण्यासाठी होईल</t>
+  </si>
+  <si>
+    <t>एका वेगळ्या संगणकावर प्रकल्प हलवून, तर कारण या प्रत्यक्ष (पूर्ण) मार्ग एयुपी(AUP) धारिका मध्ये साठवली जाते प्रकल्प बाह्य ध्वनी धारिका अवलंबून नाही आवश्यक आहे. &gt; मदत&gt; निदान वापरा प्रकल्प कोणत्याही बाह्य धारिका अवलंबून असते किंवा नाही हे तपासण्यासाठी अवलंबने ... आदेश तपासा.</t>
+  </si>
+  <si>
+    <t>टीप या धारिका अंतर्गत आपल्या प्रकल्पाचा सूची काढणार नाही&gt; अलीकडील धारिका .... प्रकल्प आपण नोंद दूर करण्यासाठी अलीकडील धारिका यादीत की प्रकल्पासाठी एयुपी(AUP) नोंद निवडू शकता हटविल्यानंतर.</t>
+  </si>
+  <si>
+    <t>धारिका एयुपी(AUP) प्रकल्प धारिका एकसारखे अंतर्गत रचना आहे, पण एक टेक्स्ट एडिटर वाचनीय नाही.</t>
+  </si>
+  <si>
+    <t>An AUP project file - the name of the project followed by ".AUP", for example</t>
+  </si>
+  <si>
+    <t>"my_song.AUP"</t>
+  </si>
+  <si>
+    <t>A _data folder with the same project name and in the same folder as the .AUP file, for example "my_song_data"</t>
+  </si>
+  <si>
+    <t>Note that default behavior on Windows and Mac is to hide certain file extensions ; if this applies, the .AUP file will only appear as "my_song" in the computer. On Windows, the .AUP extension will be hidden if Audacity was installed from the .exe installer and "Hide file extensions for known file types" remains checked in Windows Explorer. You can unhide extensions on Windows by following these instructions.</t>
+  </si>
+  <si>
+    <t>File &gt; Save Project &gt; Save Project saves a standard project as an AUP project file (a file with ".AUP" after its name) and a _data folder containing the actual audio. If the project does not have any unsaved changes (for example, if the project is empty or you just saved it), "Save Project" will be grayed out.</t>
+  </si>
+  <si>
+    <t>When opening an Audacity project always use File &gt; Open or File &gt; Recent Files to open the "my_song.AUP".</t>
+  </si>
+  <si>
+    <t>प्रकल्प वारसा ओड्यासिटी 1.1.x मध्ये तयार केला आहे किंवा यापूर्वी फक्त ओड्यासिटी वारसा आवृत्ती डब्ल्यूएवी(WAV) म्हणून प्रत्येक ध्वनी गीतपट्टा निर्यात उघडल्या जाऊ शकतात, नंतर ओड्यासिटी वर्तमान आवृत्ती मध्ये डब्ल्यूएवी(WAV) धारिका आयात करा.</t>
+  </si>
+  <si>
+    <t>Before opening the legacy AUP file, copy it and its _data folder and paste them into a different folder to make a backup. If necessary you can open the backup in Audacity १.२.क्ष(1.2.x), export each track as WAV then import the WAV files into current Audacity.</t>
+  </si>
+  <si>
+    <t>संकुचित ध्वनी धारिका, अशा डब्ल्यूएवी(WAV) किंवा एआयएफएफ म्हणून आयात करताना, ओड्यासिटी त्यांच्या मूळ स्रोत स्थान थेट त्यांना वाचन, ऐवजी प्रकल्प मध्ये त्यांना प्रत करून लगेच डिस्क स्थान आणि धारिका संपादित करा जतन करू देतो आयात प्राधान्य आहे. त्या प्रकरणात ओड्यासिटी थेट मूळ धारिका संदर्भ असेल (पण आपण त्यावर निर्यात तोपर्यंत ध्वनी धारिका कोणतेही बदल करू नयेत). आपण त्यांच्याशी थेट वाचन करून धारिका आयात असल्यास, आपण नाही की बिंदू स्थानांतरांची येथे, हलवा किंवा त्या मूळ स्त्रोत धारिका हटवा आणि ओड्यासिटी बाहेर त्यांना सुधारित नाही आवश्यक आहे.</t>
+  </si>
+  <si>
+    <t>त्याच प्रकल्प नाव आणि .एयुपी(AUP) धारिका प्रमाणे निर्देशिका मध्ये एक _data निर्देशिका, उदाहरणार्थ "my_song_data" साठी</t>
+  </si>
+  <si>
+    <t>धारिका&gt; जतन करा प्रकल्प&gt; प्रकल्प जतन करा निराश प्रत करा ... तसेच एक एयुपी(AUP) धारिका आणि _data निर्देशिका म्हणून एक मानक प्रकल्प वाचवतो. तो एक जतन करण्यासाठी आहे</t>
+  </si>
+  <si>
+    <t>धारिका&gt; जतन करा प्रकल्प&gt; जतन करा प्रकल्प म्हणून ... तसेच एक मानक प्रकल्प वाचवतो. हे रिक्त प्रकल्प जतन किंवा एक नवीन नाव विद्यमान प्रकल्प जतन करण्यासाठी उपयुक्त आहे.</t>
+  </si>
+  <si>
+    <t>प्रवेश: धारिका&gt; जतन करा प्रकल्प&gt; जतन करा प्रकल्प म्हणून ...</t>
+  </si>
+  <si>
+    <t>वारसा एयुपी(AUP) धारिका उघडून करण्यापूर्वी, तो आणि त्याच्या _data निर्देशिका प्रत आणि बॅकअप करण्यासाठी एका भिन्न निर्देशिकामध्ये त्यांना ती प्रत जोडा. आपण ओड्यासिटी १.२.क्ष(1.2.x) बॅकअप उघडू शकता आवश्यक असल्यास, डब्ल्यूएवी(WAV) वर्तमान ओड्यासिटी मध्ये डब्ल्यूएवी(WAV) धारिका आयात म्हणून प्रत्येक गीतपट्टा निर्यात.</t>
+  </si>
+  <si>
+    <t>आपण फक्त एक मुद्रण केले असेल तर जोरदार आपण लगेच प्रकल्प संपादित सुरू करण्यापूर्वी एक सुरक्षा प्रत वापरून धारिका&gt; निर्यात&gt; निर्यात ध्वनी ... डब्ल्यूएवी(WAV) किंवा एआयएफएफ (आदर्श बाह्य ड्राइव्ह) आपल्या ध्वनी निर्यात, अशी शिफारस केली आहे.</t>
+  </si>
+  <si>
+    <t>नाही धारिका&gt; ओड्यासिटी हटवा प्रकल्प आदेश आहे; म्हणून डिस्क जागा मोकळी ते स्वतः हटविणे करणे आवश्यक आहे एक प्रकल्प हटवू.</t>
+  </si>
+  <si>
+    <t>आपण प्रथम वापरून धारिका&gt; आयात किंवा धारिका ओढून कोणत्याही अर्थ एक धारिका उदाहरणार्थ, आयात, "मध्ये प्रत" प्राधान्य आपोआप स्थापित केले जाते आणि एक चेतावणी संवाद प्रत-इन आणि वाचन- फरक समजावून सादर थेट आणि ही आयात जे पद्धत वापरली पाहिजे विचारत. ओड्यासिटी भविष्यात आपल्या वर्तमान निवड वापरा आणि पुन्हा विचारू आपण निवड करू शकता, परंतु आपण आयात कोणत्याही वेळी आपली निवड बदलू शकते - निर्यात प्राधान्ये.</t>
+  </si>
+  <si>
+    <t>एक प्रकल्प जतन केले आहे आणि "जलद" पर्याय निवडला आहे, तेव्हा ओड्यासिटी ही अवलंबित्वे दर्शवित आहे एक डायलॉग बॉक्स प्रदर्शित आणि प्रकल्प मध्ये ध्वनी माहिती सर्व प्रत पर्याय आपल्याला देईल. या बाह्य ध्वनी धारिका प्रकल्प स्वतंत्र करते आणि ते हटविण्यासाठी सुरक्षित करते, हलवा, आधिकार नोंद किंवा आवश्यक असल्यास मूळ ध्वनी धारिका सुधारित. प्रकल्प प्राधान्ये समायोजन एक प्रकल्प जतन करताना ओड्यासिटी विचारू नये म्हणून सुधारित केले जाऊ शकते पण नेहमी एकतर अवलंबून ध्वनी धारिका "प्रत कधीच नाही", किंवा प्रकल्प मध्ये त्यांना "नेहमी प्रत".</t>
+  </si>
+  <si>
+    <t>आयात समायोजन: "जलद" विरुद्ध "सुरक्षित"</t>
+  </si>
+  <si>
+    <t>ओड्यासिटी एक डब्ल्यूएवी(WAV) किंवा एआयएफएफ धारिका आयात निर्धारित कसे दोन समायोजन आहेत.</t>
+  </si>
+  <si>
+    <t>अनेक गीतपट्टा आहे की एक प्रकल्प, किंवा वाढणे किंवा पॅन समायोजन किंवा गीतपट्टा आवाज समायोजित करण्यासाठी एक लिफाफा वापर सिंगल-गीतपट्टा प्रकल्पासाठी, संपूर्ण प्रकल्प हलविले करणे आवश्यक आहे. त्याच संगणकावरील वेगळ्या स्थानावर हलविण्यासाठी, धारिका वापर&gt; जतन करा प्रकल्प&gt; जतन करा प्रकल्प म्हणून .... जतन प्रकल्प म्हणून या मंद असू शकते तरी, समान नेटवर्क वरील दुसर्या संगणकावर प्रकल्प हस्तांतरित करण्यासाठी वापरले जाऊ शकते. तो हाताने प्रकल्प हलविण्यासाठी जतन आणि प्रकल्प बंद आवश्यक आहे, तर एयुपी(AUP) धारिका &lt;my_project_name&gt; .एयुपी(AUP) आणि _data निर्देशिका &lt;my_project_name&gt; _data भिन्न निर्देशिकामध्ये किंवा संगणक जा. .एयुपी(AUP) धारिका आणि _data निर्देशिका नवीन निर्देशिका मध्ये एकत्र राहू याची खात्री करा.</t>
+  </si>
+  <si>
+    <t>प्रकल्प (सुरक्षित) मध्ये संकुचित धारिका प्रत करा: ही पूर्वनियोजित समायोजन आहे. धारिका संपूर्ण ध्वनी माहिती मध्ये ओड्यासिटी प्रती त्यांना आयात करताना.</t>
+  </si>
+  <si>
+    <t>ओड्यासिटी संदर्भ मूळ ध्वनी सामग्री आपण प्रत्यक्षात संपादन काही प्रकारचे अशा दूर एक तुकडा कापून किंवा कोणताही परिणाम वापरून म्हणून काम होईपर्यंत. त्यामुळे आपण संपादित करा&gt; निवड डुप्लिकेट तर, या प्रत्यक्षात संख्या .au _data निर्देशिका धारिका वाढत नाही, आणि डिस्क स्पेस वापर वाढत नाही. संपादित करा&gt; उदाहरणार्थ प्रत .au धारिकांची संख्या वाढ नाही, पण त्यामुळे या धारिका संपादित ओड्यासिटी फीतबोर्ड वर स्वतंत्रपणे कायम राखणे शक्य आहे&gt; पेस्ट करा.</t>
+  </si>
+  <si>
+    <t>आपण ओड्यासिटी स्वतः बाहेर पडू पर्यंत कट किंवा प्रत करून ओड्यासिटी फीतबोर्ड स्थीत कोणतीही ध्वनी माहिती मात्र ठेवली जाते.</t>
+  </si>
+  <si>
+    <t>मूळ स्थान संकुचित धारिका वाचा (जलद): ओड्यासिटी वापर मागणीनुसार लोड करीत आहे. या आयात धारिका बरेच जलद केवळ आयात धारिका संदर्भ आणि आयात धारिका उपलब्ध उर्वरित अवलंबून असलेल्या लहान auf "सारांश" धारिका लिहून ठेवतात. ध्वनी माहिती केवळ धारिका आपण त्या त्यानंतर संपादन कोणत्याही भागात मध्ये प्रत केले आहे. आपण आयात धारिका संपूर्ण ध्वनी संपादन लागू केल्यास, ओड्यासिटी त्या वेळी संपूर्ण ध्वनी माहिती प्रत होईल, त्यामुळे आपण संपूर्ण ध्वनी की संपादित करा पूर्ववत करा करणार नाही असे प्रदान, प्रकल्प आयात धारिका अवलंबून यापुढे सदैव होईल आहे .लक्षात ठेवा आपण एकाच धारिका नाव आणि स्थान निर्यात करून वाचन-थेट डब्ल्यूएवी(WAV) किंवा एआयएफएफ धारिका खोडून पुन्हा तर, ओड्यासिटी एक प्रत्यय असलेली "-old" आणि एक नंबर आयात धारिका पुनर्नामित करते, नंतर या "-old" धारिका  प्रकल्पासाठी अवलंबून धारिका होते. आपण निर्यात धारिका आनंदी आहेत आणि यापुढे ओड्यासिटी प्रकल्प आवश्यक पर्यंत "-old" धारिका (चे) हटवू नका.</t>
+  </si>
+  <si>
+    <t>कोणत्याही प्रकल्पासाठी समान संगणकावर हलविणे शक्य नाही, किंवा नामकरण करण्यात एकतर धारिका&gt; जतन प्रकल्प&gt; प्रकल्प जतन करा दोषरहित प्रत करा ... किंवा धारिका&gt; जतन प्रकल्प&gt; जतन करा प्रकल्प म्हणून ... आदेश प्रकल्प एक प्रत करून जतन करा .</t>
+  </si>
+  <si>
+    <t>कोणीतरी फक्त एक एयुपी(AUP) धारिका पाठवत आहे त्यांना ओड्यासिटी प्रकल्प पाठवू शकत नाही - आपण खूप लहान AU धारिका असलेले निर्देशिका _माहिती पाठविणे आवश्यक आहे असे करावे.</t>
+  </si>
+  <si>
+    <t>एक साधी एकच गीतपट्टा प्रकल्प (वाढणे किंवा पॅन समायोजन नाही, किंवा आवाज समायोजित करण्यासाठी एक लिफाफा वापर) एक शक्य उपाय प्रकल्प हलवू शकत आहे. त्याऐवजी, धारिका वापर&gt; निर्यात&gt; निर्यात ध्वनी ... आदेश डब्ल्यूएवी(WAV) धारिका निर्यात करण्यासाठी. या डब्ल्यूएवी(WAV) धारिका नंतर (जसे USB फ्लॅश ड्राइव्ह वापरून म्हणून) दुसर्या संगणकावर प्रत केला जाऊ शकतो, धारिका नंतर&gt; आयात आदेश ओड्यासिटी प्रकल्प डब्ल्यूएवी(WAV) धारिका लोड करण्यासाठी वापरले जाऊ शकते. वैकल्पिकरित्या डब्ल्यूएवी(WAV) धारिका ई-मेल द्वारे किंवा एक धारिका सामायीकरण वेबसाइट द्वारे पाठविले जाऊ शकते कोणीतरी त्यांच्या संगणकावर एक ओड्यासिटी प्रकल्प आयात करू शकता कोण (डब्ल्यूएवी(WAV) ईमेल साठी खूप मोठे नाही आहे).</t>
+  </si>
+  <si>
+    <t>कोणतीही निर्देशिका मध्ये हाताने एक योजनेचे नाव बदलणे नका. असे केल्यास प्रकल्प भ्रष्ट होईल.</t>
+  </si>
+  <si>
+    <t>कारण प्रकल्प माहिती आकार इतरांना जटिल प्रकल्प ईमेल कठीण आणि कारण आपण प्रकल्प रचना अखंड राहील याची खात्री करण्यासाठी असलेली एयुपी(AUP) धारिका आणि _data निर्देशिका एक झिप धारिका पाठवणे आवश्यक आहे करू शकता. आपण प्रकल्प थोडासा हानिकारक ध्वनी पाठवत हरकत नसेल तर, धारिका आकार खूप प्रकल्प एक संकुचित प्रत अप झिप करणे कमी केले जाऊ शकते. लक्षात ठेवा की झिप स्वरूप म्हणून प्रकल्प, नाव, गीतपट्टा नावं मेटामाहिती नाव, विश्वसनीय वर्ण एन्कोडिंग समर्थन देत नाही, फक्त झिप वर्ण झहीर किंवा एक वापर, संपूर्ण क्रमांक (० ते ९), अधोरेखित किंवा हायफन-वजा (किंवा NUMPAD_SUBTRACT की वापरा).</t>
+  </si>
+  <si>
+    <t>नियमित बॅकअप शक्य असल्यास सर्व माहिती नष्ट संगणक हार्ड ड्राइव्हस् अपयशी होऊ शकता, डिव्हाइस वर्तमान प्रकल्प संचयित केलेली आहे, पेक्षा इतर एक किंवा दोन साधने केले पाहिजे. उदाहरणार्थ, बॅकअप, किंवा आदर्श बाह्य USB ड्राइव्ह संगणक दुसर्या अंतर्गत ड्राइव्ह केले किंवा ऑनलाइन (मेघ) संचय सेवा अपलोड केले जाऊ शकते.</t>
+  </si>
+  <si>
+    <t>आपण एयुपी(AUP) धारिका आणि त्याचे संबंधित, समान नाव _माहिती निर्देशिका दोन्ही हटविणे आवश्यक असेल.</t>
+  </si>
+  <si>
+    <t>तितक्या लवकर आपण एक प्रकल्प विंडो उघडा आणि हा एक पूर्वी जतन प्रकल्प आहे किंवा आपण एक नवीन प्रकल्प तयार आहेत का, विंडो सामग्री बदलू म्हणून, ओड्यासिटी प्रकल्प एक ".autosave" धारिका म्हणतात, एका अस्थायी संदर्भ धारिका लिहितात. या ओड्यासिटी आपोआप बंद किंवा शक्ती नुकसान झाल्यास जतन न केलेले बदल पुनर्प्राप्त करण्यासाठी परवानगी देते.</t>
+  </si>
+  <si>
+    <t>आपण प्रकल्प जतन करा, प्रकल्प जतन करा दोषरहित प्रत करा ... किंवा जतन प्रकल्प म्हणून वापर करता, तेव्हा ... यापुढे जतन न केलेले बदल, ताज्या जतन न केलेले बदल केले जातात होईपर्यंत म्हणून ".autosave" धारिका हटविली आहे. धारिका अनुप्रयोग माहिती ओड्यासिटी च्या निर्देशिका आत "स्वयंजतन(AUTOSAVE)" निर्देशिका मध्ये साठवली जाते.</t>
+  </si>
+  <si>
+    <t>उदाहरणार्थ, मुलभूत गुणवत्ता समायोजन येथे पाच मिनिट स्टिरीओ मुद्रण १०० जागा एमबी(MB) घेते. आपण त्या मुद्रण संपूर्ण लांबी संपादित करत असल्यास, डिस्क स्पेस वापर २०० एमबी(MB) पर्यंत वाढवण्यात येईल.</t>
+  </si>
+  <si>
+    <t>आपण एक गीतपट्टा मध्ये फक्त एक लहान निवड फक्त त्या बदलेल्या डाटा लहान निवड डिस्कवर लिहिले आहे की, संपादन, तर. तथापि, हे अद्याप निवड डिस्क जागा वापर दुप्पट, आणि त्या निवड वर आणखी संपादन प्रतिनिधित्व (आपण प्रथम मागील संपादित करा पूर्ववत करा नाही तर) पुन्हा पुन्हा तीच रक्कम जोडते, आणि तसेच चालू राहते.</t>
+  </si>
+  <si>
+    <t>डब्ल्यूएवी(WAV) किंवा एमपी३(MP3)), किंवा इतर अनुप्रयोग निर्यात ध्वनी एक आज्ञा वापर धारिका&gt; निर्यात मेन्यू पासून उपलब्ध वापरासाठी आपल्या संगीत उपकरणावर खेळत आहे.</t>
+  </si>
+  <si>
+    <t>ओड्यासिटी च्या एका प्रकल्पाची रचना</t>
+  </si>
+  <si>
+    <t>एक ओड्यासिटी प्रकल्प उघडत आहे</t>
+  </si>
+  <si>
+    <t>जाण्याचा किंवा ओड्यासिटी प्रकल्प पाठवतआहे</t>
+  </si>
+  <si>
+    <t>एक ओड्यासिटी प्रकल्प हटवित आहे</t>
+  </si>
+  <si>
     <t>Audacity can usually open AUP files created in legacy Audacity 1.2.x, but saving the project will prevent it opening again in 1.2.x.</t>
-  </si>
-  <si>
-    <t>Before opening the legacy AUP file, copy it and its _data folder and paste them into a different folder to make a backup. If necessary you can open the backup in Audacity 1.2.x, export each track as WAV then import the WAV files into current Audacity.</t>
-  </si>
-  <si>
-    <t>Projects created in legacy Audacity 1.1.x or earlier can only be opened by exporting each audio track as WAV in the legacy version of Audacity, then import the WAV files into the current version of Audacity.</t>
-  </si>
-  <si>
-    <t>When importing uncompressed audio files, such as WAV or AIFF, Audacity has an import preference that lets you save disk space and edit the files almost immediately by reading them directly from their original source location, rather than copying them into the project. In that case Audacity will reference the original file directly (but not make any changes to that audio file unless you export over it). If you import the files by reading them directly, you must not at that point rename, move or delete those original source files and must not modify them outside Audacity.</t>
-  </si>
-  <si>
-    <t>When you first import a file by any means, for example by using File &gt; Import or by dragging the file in, the preference is automatically set to "copy in" and a Warning dialog is presented explaining the difference between copy-in and read-directly and asking which method should be used for this import. You can opt for Audacity to use your current choice in future and not ask again, but you can change your choice at any time in Import - Export Preferences.</t>
-  </si>
-  <si>
-    <t>When a project is saved and the "faster" option has been chosen, Audacity will display a dialog box showing these dependencies and give the option of copying all of the audio data into the project. This makes the project independent of external audio files and makes it safe to delete, move, rename or modify the original audio files if necessary. The Projects Preferences settings can be modified so that Audacity will not ask when saving a project but will always either "never copy" the dependent audio files, or "always copy" them into the project.</t>
-  </si>
-  <si>
-    <t>At any time it is possible to click on Help &gt; Diagnostics &gt; Check Dependencies... to see if the project depends on any external files.</t>
-  </si>
-  <si>
-    <t>Import settings: "faster" versus "safer"</t>
-  </si>
-  <si>
-    <t>There are two settings that determine how Audacity imports a WAV or AIFF file.</t>
-  </si>
-  <si>
-    <t>Copy uncompressed files into the project (safer): This is the default setting. Audacity copies in the entire audio data of files when importing them.</t>
-  </si>
-  <si>
-    <t>Choose this "Safer" option if:</t>
-  </si>
-  <si>
-    <t>Plenty of disk space is available and the time taken to import is not crucial</t>
-  </si>
-  <si>
-    <t>You want peace of mind that the project will never depend on other files</t>
-  </si>
-  <si>
-    <t>The Audacity project is to be opened on another computer or sent to someone else (if you only want to send an exported audio file to someone else, you do not need to choose "Safer").</t>
-  </si>
-  <si>
-    <t>Read uncompressed files from the original location (faster): Audacity uses On-Demand Loading. This imports files much faster by only writing small AUF "summary" files that reference the imported file and so depend on that imported file remaining available. Audio data is only copied in for any parts of the file that you subsequently edit. If you apply an edit to the entire audio of the imported file, Audacity will at that point copy the entire audio data in, so providing you do not undo that edit of the entire audio, the project will henceforward no longer depend on the imported file.Note that if you overwrite a read-directly WAV or AIFF file by exporting to the same file name and location, Audacity renames the imported file with a suffix containing "-old" and a number, then this "-old" file becomes the dependent file for the project. Do not delete "-old" file(s) until you are happy with the exported file and no longer require the Audacity project.</t>
-  </si>
-  <si>
-    <t>Do not choose the "Faster" option unless you completely understand the implications. If you move, rename or delete the imported file, the project data may be lost.</t>
-  </si>
-  <si>
-    <t>Moving, renaming or sending an Audacity project</t>
-  </si>
-  <si>
-    <t>Moving or renaming Audacity projects can be tricky due to their complex structure as described above.</t>
-  </si>
-  <si>
-    <t>Any project can be moved on the same computer, or renamed, by making a copy of the project with either the File &gt; Save Project &gt; Save Lossless Copy of Project... or the File &gt; Save Project &gt; Save Project As... command.</t>
-  </si>
-  <si>
-    <t>Sending somebody just an AUP file does not send them an Audacity project - to do that you would need to send the _data folder containing the small AU files too.</t>
-  </si>
-  <si>
-    <t>For a simple single track project (that does not have gain or pan settings, or use an envelope to adjust the volume) one possible solution is to not move the project. Instead, use the File &gt; Export &gt; Export Audio... command to export a WAV file. This WAV file can then be copied to another computer (such as by using a USB flash drive), then the File &gt; Import command can be used to load the WAV file into an Audacity project. Alternatively the WAV file can be sent by email or via a file sharing website (if the WAV is not too large for email) to someone else who can import it into an Audacity project on their computer.</t>
-  </si>
-  <si>
-    <t>For a project that has multiple tracks, or a single-track project that has gain or pan settings or uses an envelope to adjust the volume of the track, the entire project will need to be moved. To move to a different location on the same computer, use File &gt; Save Project &gt; Save Project As.... Save Project As can also be used to transfer the project to another computer on the same network, though this can be slow. If it is necessary to move the project by hand, save and close the project then move the AUP file &lt;my_project_name&gt;.AUP and the _data folder &lt;my_project_name&gt;_data to a different folder or computer. Ensure that the .AUP file and _data folder remain together in the new folder.</t>
-  </si>
-  <si>
-    <t>Never rename a project by hand in any folder. Doing so will corrupt the project.</t>
-  </si>
-  <si>
-    <t>If moving the project to a different computer, the project must not depend on external audio files because the actual (absolute) path to these is stored in the AUP file. Use the Help &gt; Diagnostics &gt; Check Dependencies... command to check whether the project depends on any external files.</t>
-  </si>
-  <si>
-    <t>If it does, the dialog box will give you the option to make a copy of those files within the project.</t>
-  </si>
-  <si>
-    <t>It can be difficult to email complex projects to others because of the size of the project data and because you must send a ZIP file containing AUP file and _data folder to ensure the project structure remains intact. If you do not mind sending slightly lossy audio in the project, the file size can be greatly reduced by zipping up a compressed copy of the project. Note that ZIP formats do not support reliable character encoding, so for the name of the project, labels, track names or metadata, only use A to Z or a to z characters, whole numbers (0 to 9), underscore or hyphen-minus (or use the NUMPAD_SUBTRACT key).</t>
-  </si>
-  <si>
-    <t>See also Sending your work to others and this FAQ.</t>
-  </si>
-  <si>
-    <t>Regular backups should if possible be made to one or two devices other than the device the current project is stored on, as computer hard drives can fail, destroying all data. For example, backups could be made to another internal drive on the computer, or ideally to an external USB drive or uploaded to an online (cloud) storage service.</t>
-  </si>
-  <si>
-    <t>For advice on backing up Audacity projects please see this FAQ.</t>
-  </si>
-  <si>
-    <t>If you have just made a recording it is strongly recommended that you immediately export your audio using File &gt; Export &gt; Export Audio... to WAV or AIFF (ideally to an external drive) as a safety copy before you start editing the project.</t>
-  </si>
-  <si>
-    <t>There is no File &gt; Delete Project command in Audacity; therefore to delete a project to free up disk space it is necessary to make the deletion manually.</t>
-  </si>
-  <si>
-    <t>You will need to delete both the AUP file and its associated, identically named _data folder.</t>
-  </si>
-  <si>
-    <t>'=</t>
-  </si>
-  <si>
-    <t>Note that this will not remove the listing of your project under File &gt; Recent Files.... After deleting the project you can choose the AUP entry for that project in the Recent Files list in order to remove the entry.</t>
-  </si>
-  <si>
-    <t>As soon as you open a project window and change the window contents, whether this is a previously saved project or you are creating a new project, Audacity writes a temporary reference file for that project called an ".autosave" file. This allows Audacity to automatically recover unsaved changes in the event of a crash or power loss.</t>
-  </si>
-  <si>
-    <t>When you use Save Project, Save Lossless Copy of Project... or Save Project As... there are no longer unsaved changes, so the ".autosave" file is deleted until fresh unsaved changes are made. The file is stored in the "AutoSave" folder inside Audacity's folder for application data.</t>
-  </si>
-  <si>
-    <t>The file is of identical internal structure to an AUP project file, but is not readable by a text editor.</t>
-  </si>
-  <si>
-    <t>Most changes you make to the audio data, such as adding or removing audio or applying an effect to it, trigger writing the ".autosave" file. A change to the position of the selection or editing cursor does not write to the ".autosave" file, and is not captured when closing the project, unless the project is already "dirty" (as shown by Save Project in the submenu being not grayed out and being clickable).</t>
-  </si>
-  <si>
-    <t>This can be particularly important if you are editing a large project.</t>
-  </si>
-  <si>
-    <t>Audacity references the original audio material until you actually perform some kind of edit on it, such as cutting a piece away or using any effect on it. So if you Edit &gt; Duplicate a selection, this doesn't actually increase the number of .au files in the _data folder, and doesn't increase disk space usage. Edit &gt; Copy for example does increase the number of .au files, but this is so these files can be retained separately on the Audacity clipboard for Edit &gt; Paste.</t>
-  </si>
-  <si>
-    <t>Once you perform an edit, the original unchanged audio is retained, along with the changed audio. This is so you can use Edit &gt; Undo and Edit &gt; Redo to try out edits and undo them if they do not sound as you wanted.</t>
-  </si>
-  <si>
-    <t>If you edit just a small selection in a track, only that small selection of changed data is written to disk. Nonetheless, this still represents a doubling of disk space usage for that selection, and a further edit on that selection (unless you first undo the previous edit) adds the same amount again, and so on.</t>
-  </si>
-  <si>
-    <t>For example, a five minute stereo recording at default quality settings takes 100 MB of space. If you edit the whole length of that recording, disk space usage will increase to 200 MB.</t>
-  </si>
-  <si>
-    <t>If disk space is a problem while working on a project, you can use View &gt; History... to discard Undo levels and reclaim disk space. Note that once you close the project by using File &gt; Close or exiting Audacity, the audio data needed for Undo/Redo is discarded, so as to make project storage as economical as possible.</t>
-  </si>
-  <si>
-    <t>Any audio data placed on the Audacity clipboard by Cut or Copy is however retained until you exit Audacity itself.</t>
-  </si>
-  <si>
-    <t>येथे जा: सुचालन, शोधयंत्र</t>
-  </si>
-  <si>
-    <t>सामग्री</t>
-  </si>
-  <si>
-    <t>प्रकल्प प्रती जतन करीत आहे</t>
-  </si>
-  <si>
-    <t>प्रकल्प अवलंबने</t>
-  </si>
-  <si>
-    <t>स्वयंचलितरित्या जतन आणि पुनर्प्राप्ती</t>
-  </si>
-  <si>
-    <t>डिस्क स्पेस वापर</t>
-  </si>
-  <si>
-    <t>"My_song.aup"</t>
-  </si>
-  <si>
-    <t>त्याच प्रकल्प नाव आणि .aup फाईल प्रमाणे फोल्डर मध्ये एक _data फोल्डर, उदाहरणार्थ "my_song_data" साठी</t>
-  </si>
-  <si>
-    <t>आपण आपल्या योजनेचे नाव बदलणे करू इच्छित असल्यास, फाईल&gt; एक प्रकल्प जतन करा&gt; प्रकल्प जतन करा Lossless कॉपी करा ... किंवा फाईल&gt; Save प्रकल्प&gt; जतन करा प्रकल्प म्हणून वापर (उदाहरणार्थ, एका विशिष्ट टप्प्यावर एक स्नॅपशॉट जतन करण्यासाठी) ... आदेश.</t>
-  </si>
-  <si>
-    <t>तेथे प्रकल्प जतन करण्यासाठी तीन मुख्य आदेश आहेत:</t>
-  </si>
-  <si>
-    <t>(एक ओळखले राज्यात आपल्या प्रकल्पाचा सुरक्षा बॅकअप प्रत आयोजित उदाहरणार्थ) विद्यमान नवीन नाव प्रकल्प सद्यस्थितीत प्रकल्प एक नवीन प्रत तयार</t>
-  </si>
-  <si>
-    <t>चालू प्रकल्प वर कार्य सुरू ठेवण्यासाठी आपण खुले राहील.</t>
-  </si>
-  <si>
-    <t>फाईल&gt; Save प्रकल्प&gt; जतन करा प्रकल्प म्हणून ... तसेच एक मानक प्रकल्प वाचवतो. हे रिक्त प्रकल्प जतन किंवा एक नवीन नाव विद्यमान प्रकल्प जतन करण्यासाठी उपयुक्त आहे.</t>
-  </si>
-  <si>
-    <t>प्रकल्प जतन करा Lossless कॉपी</t>
-  </si>
-  <si>
-    <t>प्रवेश:&gt; जतन करा प्रकल्प&gt; प्रकल्प जतन करा Lossless कॉपी करा ...</t>
-  </si>
-  <si>
-    <t>हे आपण त्यावर काम म्हणून एक प्रकल्प एक सुरक्षा बॅकअप प्रत तयार करण्यासाठी सुरक्षित आणि शिफारस केलेला मार्ग आहे. हा प्रकल्प एका बॅकअप प्रत म्हणून एकतर सेवा शकते, किंवा राज्य एक विशिष्ट तारीख आणि वेळ होती प्रकल्प अनेक वाढीव प्रती एक म्हणून. हा आदेश वापरून वर कार्य सुरू ठेवण्यासाठी आपण सक्षम आपल्या वर्तमान प्रकल्प उघडलेले असेल "म्हणून जतन करा ..." आवडले नाही.</t>
-  </si>
-  <si>
-    <t>प्रकल्प म्हणून जतन करा</t>
-  </si>
-  <si>
-    <t>प्रवेश: फाईल&gt; Save प्रकल्प&gt; जतन करा प्रकल्प म्हणून ...</t>
-  </si>
-  <si>
-    <t>हे एक नवीन नाव किंवा स्थान एक प्रकल्प एक प्रत करण्यासाठी एक मार्ग आहे.</t>
-  </si>
-  <si>
-    <t>आपण "जतन करा प्रकल्प म्हणून" एक नवीन नाव, प्रकल्प विंडो नंतर प्रकल्प नाव दाखवतो, तर आपण फक्त "म्हणून जतन". प्रकल्प विंडो पूर्वी नाव म्हणून त्याच्या शेवटी जतन केलेला राज्यात बंद आहे, परंतु आवश्यक म्हणून काबीज केले जाऊ शकते प्रकल्प प्रदर्शित.</t>
-  </si>
-  <si>
-    <t>प्रकल्प जतन करा संकुचित कॉपी</t>
-  </si>
-  <si>
-    <t>जुने प्रकल्प</t>
-  </si>
-  <si>
-    <t>आयात सेटिंग्ज: "जलद" विरुद्ध "सुरक्षित"</t>
-  </si>
-  <si>
-    <t>या "सुरक्षित" पर्याय निवडा:</t>
-  </si>
-  <si>
-    <t>डिस्क जागा भरपूर उपलब्ध आहे आणि आयात नेले वेळ महत्वाचा नाही</t>
-  </si>
-  <si>
-    <t>कोणत्याही प्रकल्पासाठी समान संगणकावर हलविणे शक्य नाही, किंवा नामकरण करण्यात एकतर फाईल&gt; Save प्रकल्प&gt; प्रकल्प जतन करा Lossless कॉपी करा ... किंवा फाईल&gt; Save प्रकल्प&gt; जतन करा प्रकल्प म्हणून ... आदेश प्रकल्प एक प्रत करून, .</t>
-  </si>
-  <si>
-    <t>कोणतीही फोल्डर मध्ये हाताने एक योजनेचे नाव बदलणे नका. त्यामुळे भ्रष्ट होईल प्रोजेक्ट करत.</t>
-  </si>
-  <si>
-    <t>इतरांना आणि या जाणारे आपले कार्य पाठवत आहे पहा.</t>
-  </si>
-  <si>
-    <t>नियमित बॅकअप शक्य असल्यास सर्व डाटा नष्ट संगणक हार्ड ड्राइव्हस् अपयशी शकता, डिव्हाइस वर्तमान प्रकल्प संचयित केलेली आहे, पेक्षा इतर एक किंवा दोन साधने केले पाहिजे. उदाहरणार्थ, बॅकअप, किंवा आदर्श बाह्य USB ड्राइव्ह संगणक दुसर्या अंतर्गत ड्राइव्ह केले किंवा ऑनलाइन (मेघ) संचय सेवा अपलोड केले जाऊ शकते.</t>
-  </si>
-  <si>
-    <t>=</t>
-  </si>
-  <si>
-    <t>आपण एका मोठ्या प्रकल्प संपादित करीत आहेत तर हे महत्वाचे असू शकते.</t>
-  </si>
-  <si>
-    <t>ओड्यासिटी प्रकल्प व्यवस्थापकीय - ओड्यासिटी मॅन्युअल</t>
-  </si>
-  <si>
-    <t>ओड्यासिटी प्रकल्प व्यवस्थापकीय</t>
-  </si>
-  <si>
-    <t>ओड्यासिटी विकास मॅन्युअल पासून</t>
-  </si>
-  <si>
-    <t>एक ओड्यासिटी अशी या प्रकल्पाची रचना</t>
-  </si>
-  <si>
-    <t>एक ओड्यासिटी प्रकल्प जतन करीत आहे</t>
-  </si>
-  <si>
-    <t>एक ओड्यासिटी प्रकल्प उघडत</t>
-  </si>
-  <si>
-    <t>जाण्याचा किंवा ओड्यासिटी प्रकल्प पाठवून</t>
-  </si>
-  <si>
-    <t>ओड्यासिटी प्रकल्प बॅक अप घेत आहे</t>
-  </si>
-  <si>
-    <t>एक ओड्यासिटी प्रकल्प हटवित</t>
-  </si>
-  <si>
-    <t>ओड्यासिटी प्रकल्प स्वरूप</t>
-  </si>
-  <si>
-    <t>एक जतन ओड्यासिटी अशी या प्रकल्पाची रचना आहे:</t>
-  </si>
-  <si>
-    <t>आपल्या ओड्यासिटी प्रकल्प आनंदी ठेवण्यासाठी चार नियम:</t>
-  </si>
-  <si>
-    <t>एक ओड्यासिटी प्रकल्प बचत फायदे आहेत:</t>
-  </si>
-  <si>
-    <t>Lossless जतन करा कॉपी ओड्यासिटी विपरीत त्याच्या शेवटी-बंद केलेला राज्यात वर्तमान प्रकल्प बंद करा आणि वर्तमान स्थितीत नवीन प्रकल्प उघडेल.</t>
-  </si>
-  <si>
-    <t>हलवित, पुनर्नामित किंवा ओड्यासिटी प्रकल्प पाठवून</t>
-  </si>
-  <si>
-    <t>वर वर्णन हलवून किंवा ओड्यासिटी प्रकल्प पुनर्नामित त्यांच्या जटिल रचना झाल्यामुळे अवघड असू शकते.</t>
-  </si>
-  <si>
-    <t>ओड्यासिटी प्रकल्प अप टेकू सल्ला कृपया हे FAQ पहा.</t>
-  </si>
-  <si>
-    <t>नाही फाईल&gt; ओड्यासिटी हटवा प्रकल्प आदेश आहे; म्हणून डिस्क जागा मोकळी ते स्वतः हटविणे करणे आवश्यक आहे एक प्रकल्प हटवू.</t>
-  </si>
-  <si>
-    <t>आपण संपादन सुरू एकदा, मूळ जसाच्या तसा ध्वनी बदललेल्या ध्वनी सोबत ठेवली जाते. त्यामुळे आपण संपादने बाहेर प्रयत्न संपादित करा&gt; पूर्ववत करा आणि संपादित करा&gt; पुन्हा वापरता आणि ते पूर्ववत करू शकत आपल्याला पाहिजे ते आवाज नाही तर हे आहे.</t>
-  </si>
-  <si>
-    <t>एक ध्वनी धारिका करण्यासाठी (जसे की</t>
-  </si>
-  <si>
-    <t>WAV किंवा MP3), किंवा इतर अनुप्रयोग निर्यात ध्वनी एक आज्ञा वापर धारिका&gt; निर्यात मेन्यू पासून उपलब्ध वापरासाठी आपल्या संगीत खेळाडू वर खेळत आहे.</t>
-  </si>
-  <si>
-    <t>एक AUP प्रोजेक्ट धारिका - प्रकल्प नाव ".aup" त्यानंतर, उदाहरणार्थ</t>
-  </si>
-  <si>
-    <t>लक्षात ठेवा Windows व Mac वर मुलभूत वर्तन काही निश्चित धारिका विस्तार लपविण्यासाठी आहे; या लागू होत असल्यास, .aup धारिका फक्त संगणक मध्ये "my_song" म्हणून दिसेल. ओड्यासिटी .exe इंस्टॉलर आणि "ज्ञात धारिका प्रकार करीता लपवा धारिका विस्तार" राहते विंडोज एक्सप्लोरर मध्ये चेक वरून स्थापित केले होते तर Windows वर, .aup विस्तार लपविला जाईल. आपण या सूचनांचे अनुसरण करून विंडोज विस्तार समक्ष आणू शकतात.</t>
-  </si>
-  <si>
-    <t>AUP धारिका XML स्वरूपात आहे आणि आवश्यक असल्यास एक टेक्स्ट एडिटर मध्ये उघडली जाऊ शकतात. ऑस्ट्रेलिया धारिका्स एक लॉसलेस्, uncompressed स्वरूपात साठवले जातात. त्यांचे डीफॉल्ट आकार 1 MB किंवा कमी आहे. या ओड्यासिटी प्रकल्प स्वरूप ओड्यासिटी जलद ध्वनी संपादन करण्यासाठी डिझाइन केलेले आहे.</t>
-  </si>
-  <si>
-    <t>एक uncompressed ध्वनी धारिका आयात करताना "मूळ थेट वाचा uncompressed धारिका (जलद)" पर्याय आयात / निर्यात प्राधान्ये चेक हलवा नाही, आधिकार नोंद किंवा आपण प्रथम ओड्यासिटी प्रकल्प कॉपी नाही तोपर्यंत धारिका हटवा. &gt; मदत&gt; निदान पहा अवलंबने तपासा ... अधिक माहितीसाठी.</t>
-  </si>
-  <si>
-    <t>AUP धारिका किंवा हाताने _data फोल्डर पुनर्नामित करा नका.</t>
-  </si>
-  <si>
-    <t>नेहमी एकत्र एकाच डिरेक्ट्रीमध्ये (फोल्डर नाही) मध्ये AUP धारिका आणि _data फोल्डर ठेवा.</t>
-  </si>
-  <si>
-    <t>जतन ओड्यासिटी प्रकल्प फक्त उघडले आणि ओड्यासिटी वापरली जाऊ शकते. आपण आपल्या संगीत खेळाडू खेळणार किंवा CD बर्ण करण्यासाठी एक ध्वनी धारिका इच्छित असल्यास, निर्यात आदेशचा वापर करा.</t>
-  </si>
-  <si>
-    <t>पुन्हा आयात किंवा पुन्हा रेकॉर्ड धारिका करण्याची गरज नाही</t>
-  </si>
-  <si>
-    <t>फाईल&gt; Save प्रकल्प&gt; जतन करा प्रकल्प एक AUP प्रकल्प धारिका म्हणून एक मानक प्रकल्प आणि प्रत्यक्ष ध्वनी असलेले फोल्डर एक _data (त्याचे नाव नंतर ".aup" एक धारिका) वाचवतो. प्रकल्प जतन न केलेले बदल नाही तर (उदाहरणार्थ, प्रकल्प रिक्त आहे किंवा आपण फक्त तो जतन केला असेल तर), "जतन करा प्रकल्प" राखाडी जाईल.</t>
-  </si>
-  <si>
-    <t>फाईल&gt; Save प्रकल्प&gt; प्रकल्प जतन करा Lossless कॉपी करा ... तसेच एक AUP धारिका आणि _data फोल्डर म्हणून एक मानक प्रकल्प वाचवतो. तो एक जतन करण्यासाठी आहे</t>
-  </si>
-  <si>
-    <t>धारिका कोणत्याही प्रकारच्या बचत म्हणून, ते कार्य सिस्टमसाठी आरक्षित आहेत तर काही वर्ण AUP धारिका नाव वापरले जाऊ शकत नाही. निषिद्ध वर्ण आमच्या माहिती पहा.</t>
-  </si>
-  <si>
-    <t>एक ओड्यासिटी प्रकल्प जतन करताना तो धारिका वापरण्याची साधारणपणे सर्वात सोपा आहे&gt; जतन करा प्रकल्प आदेश (Mac वर किंवा ⌘ + S) Ctrl + S डीफॉल्ट शॉर्टकट आहे. जतन एक प्रकल्प पुन्हा केले आणखी बदल येत, "जतन करा प्रकल्प" नंतर AUP धारिका आणि _data फोल्डर शांतपणे प्रॉम्प्ट तुम्हाला त्रास न अद्यतनित जर.</t>
-  </si>
-  <si>
-    <t>आपण ऑपरेटिंग प्रणालीच्या प्रत वापर कधीही आणि मूळ प्रोजेक्ट म्हणून समान फोल्डर मध्ये प्रकल्प AUP धारिका एक प्रत आणि _data फोल्डर करण्यासाठी पेस्ट करा. आपल्या हातात एक प्रत करणे आवश्यक आहे, तर जतन करा आणि बंद प्रथम तत्कालीन AUP धारिका आणि _data फोल्डर कॉपी आणि एका भिन्न फोल्डरमध्ये पेस्ट. या मूळ धारिका याची खात्री आणि फोल्डर नावे कायम ठेवली जातात.</t>
-  </si>
-  <si>
-    <t>आपण (इंटरनेट एक प्रकल्प पाठवू उदाहरणार्थ) जागा जतन करणे आवश्यक असल्यास आपल्याला धारिका वापरून आपल्या प्रकल्पाचा संकुचित आवृत्ती जतन करू शकता&gt; जतन करा प्रकल्प&gt; प्रकल्प जतन करा संकुचित कॉपी ....</t>
-  </si>
-  <si>
-    <t>आपण प्रथम वापरून फाईल&gt; आयात किंवा धारिका ओढून कोणत्याही अर्थ एक धारिका उदाहरणार्थ, आयात, "मध्ये प्रत" प्राधान्य आपोआप सेट केले जाते आणि एक चेतावणी संवाद प्रत-इन आणि read- फरक समजावून सादर थेट आणि ही आयात जे पद्धत वापरली पाहिजे विचारत. ओड्यासिटी भविष्यात आपल्या वर्तमान निवड वापरा आणि पुन्हा विचारू आपण निवड करू शकता, परंतु आपण आयात कोणत्याही वेळी आपली निवड बदलू शकते - निर्यात प्राधान्ये.</t>
-  </si>
-  <si>
-    <t>कोणत्याही वेळी मदत&gt; निदान वर क्लिक करा&gt; अवलंबने तपासा ... प्रकल्प कोणत्याही बाह्य धारिका अवलंबून असल्यास पाहण्यासाठी करणे शक्य आहे.</t>
-  </si>
-  <si>
-    <t>ओड्यासिटी एक WAV किंवा एआयएफएफ धारिका आयात निर्धारित कसे दोन सेटिंग्ज आहेत.</t>
-  </si>
-  <si>
-    <t>आपल्याला मन: शांती करू इच्छित असलेला प्रकल्प इतर धारिका्स अवलंबून नाही की</t>
-  </si>
-  <si>
-    <t>ओड्यासिटी प्रकल्प दुसर्या संगणकावर उघडल्या किंवा कोणीतरी पाठविला जाईल आहे (आपण फक्त कोणीतरी निर्यातीत ध्वनी धारिका पाठवू इच्छित असल्यास, आपण "सुरक्षित" निवडा करण्याची गरज नाही).</t>
-  </si>
-  <si>
-    <t>कोणीतरी फक्त एक AUP फाईल पाठवत आहे त्यांना ओड्यासिटी प्रकल्प पाठवू शकत नाही - आपण खूप लहान AU धारिका असलेले फोल्डर _data पाठविणे आवश्यक आहे असे करावे.</t>
-  </si>
-  <si>
-    <t>आपण AUP धारिका आणि त्याचे संबंधित, identically नाव _data फोल्डर दोन्ही हटविणे आवश्यक असेल.</t>
-  </si>
-  <si>
-    <t>तितक्या लवकर आपण एक प्रकल्प विंडो उघडा आणि हा एक पूर्वी जतन प्रकल्प आहे किंवा आपण एक नवीन प्रकल्प तयार आहेत का, विंडो सामग्री बदलू म्हणून, ओड्यासिटी प्रकल्प एक ".autosave" धारिका म्हणतात, एका अस्थायी संदर्भ धारिका लिहितात. या ओड्यासिटी आपोआप क्रॅश किंवा शक्ती नुकसान झाल्यास जतन न केलेले बदल पुनर्प्राप्त करण्यासाठी परवानगी देते.</t>
-  </si>
-  <si>
-    <t>धारिका AUP प्रकल्प धारिका एकसारखे अंतर्गत रचना आहे, पण एक टेक्स्ट एडिटर वाचनीय नाही.</t>
-  </si>
-  <si>
-    <t>ओड्यासिटी सर्व संपादन प्रकल्प म्हणून केले जाते. तो एक प्रकल्प एकच ध्वनी धारिका पण ओड्यासिटी द्वारे व्यवस्थापित धारिका जटिल संच नाही आहे हे लक्षात घेणे महत्वाचे आहे.</t>
-  </si>
-  <si>
-    <t>आपण फक्त एक मुद्रण केले असेल तर जोरदार आपण लगेच प्रकल्प संपादित सुरू करण्यापूर्वी एक सुरक्षा प्रत वापरून फाईल&gt; निर्यात&gt; निर्यात ध्वनी ... WAV किंवा एआयएफएफ (आदर्श बाह्य ड्राइव्ह) आपल्या ध्वनी निर्यात, अशी शिफारस केली आहे.</t>
-  </si>
-  <si>
-    <t>उदाहरणार्थ, मुलभूत गुणवत्ता सेटिंग्ज येथे पाच मिनिट स्टिरीओ मुद्रण 100 जागा MB घेते. आपण त्या मुद्रण संपूर्ण लांबी संपादित करत असल्यास, डिस्क स्पेस वापर 200 MB पर्यंत वाढवण्यात येईल.</t>
-  </si>
-  <si>
-    <t>व्हेवफॉर्म प्रदर्शन आणि कोणत्याही अवलंबून ध्वनी धारिका दुवे असतो त्यांच्या स्रोत स्थान थेट वाचली आहे.</t>
-  </si>
-  <si>
-    <t>कधीही हलवा, हटविण्यासाठी किंवा _data फोल्डरमधील धारिका किंवा फोल्डर कोणत्याही नाव बदला.</t>
-  </si>
-  <si>
-    <t>एक ओड्यासिटी प्रकल्प नेहमी धारिका वापर उघडताना&gt; उघडा किंवा फाईल&gt; अलीकडील धारिका "my_song.aup" उघडण्यासाठी.</t>
-  </si>
-  <si>
-    <t>उघडा आयात किंवा हाताळू कोणतीही व्यक्ती AU धारिका प्रयत्न करू नका.</t>
-  </si>
-  <si>
-    <t>uncompressed ध्वनी धारिका, अशा WAV किंवा एआयएफएफ म्हणून आयात करताना, ओड्यासिटी त्यांच्या मूळ स्रोत स्थान थेट त्यांना वाचन, ऐवजी प्रकल्प मध्ये त्यांना कॉपी करून लगेच डिस्क स्थान आणि धारिका संपादित करा जतन करू देतो आयात प्राधान्य आहे. त्या प्रकरणात ओड्यासिटी थेट मूळ धारिका संदर्भ असेल (पण आपण त्यावर निर्यात तोपर्यंत ध्वनी धारिका कोणतेही बदल करू नयेत). आपण त्यांच्याशी थेट वाचन करून धारिका आयात असल्यास, आपण नाही की बिंदू स्थानांतरांची येथे, हलवा किंवा त्या मूळ स्त्रोत धारिका हटवा आणि ओड्यासिटी बाहेर त्यांना सुधारित नाही आवश्यक आहे.</t>
-  </si>
-  <si>
-    <t>एका वेगळ्या संगणकावर प्रकल्प हलवून, तर कारण या प्रत्यक्ष (पूर्ण) मार्ग AUP धारिका मध्ये साठवली जाते प्रकल्प बाह्य ध्वनी धारिका अवलंबून नाही आवश्यक आहे. &gt; मदत&gt; निदान वापरा प्रकल्प कोणत्याही बाह्य धारिका अवलंबून असते किंवा नाही हे तपासण्यासाठी अवलंबने ... आदेश तपासा.</t>
-  </si>
-  <si>
-    <t>तो नाही तर, संवाद बॉक्स प्रकल्प आत त्या धारिकांच्या एक प्रत तयार करू पर्याय देईल.</t>
-  </si>
-  <si>
-    <t>टीप या धारिका अंतर्गत आपल्या प्रकल्पाचा सूची काढणार नाही&gt; अलीकडील धारिका .... प्रकल्प आपण नोंद दूर करण्यासाठी अलीकडील धारिका यादीत की प्रकल्पासाठी AUP नोंद निवडू शकता हटविल्यानंतर.</t>
-  </si>
-  <si>
-    <t>की _data फोल्डर, ध्वनी माहिती वैयक्तिक विभागाच्या आहेत थोडे AU धारिका्स बरेच उप-फोल्डर संरचना आत.</t>
-  </si>
-  <si>
-    <t>संपादन दरम्यान वैयक्तिक AU धारिका अद्यतनित करून, ओड्यासिटी ध्वनी बदलू किंवा एक ठिकाणाहून दुसर्या माहिती मोठ्या प्रमाणात नक्कल न करता प्रकल्प सुमारे हलवू शकता.</t>
-  </si>
-  <si>
-    <t>ध्वनी माहिती नेहमी लॉसलेस् गुणवत्ता संरक्षित केला जातो. आपण आधीच MP3 सारख्या Lossy ध्वनी स्वरूप निर्यात पण पुढील प्रकल्प संपादित करण्यासाठी निर्णय असेल तर हे उपयुक्त आहे. संपादन आणि पुन्हा निर्यात प्रकल्प मागे निर्यात MP3 पुन्हा संपादित अतिरिक्त गुणवत्ता नुकसान वाचवतो.</t>
-  </si>
-  <si>
-    <t>एक प्रकल्प जतन करण्याची गरज नाही तोपर्यंत तो तात्पुरत्या प्रकल्प धारिका काम करणे शक्य आहे आणि नंतर फक्त फाईल&gt; निर्यात&gt; निर्यात ध्वनी ... आवश्यक ध्वनी धारिका निर्यात करण्यासाठी वापरता आवश्यक आहे. प्रकल्प जतन न केल्यास, आवश्यक ध्वनी माहिती अनुप्रयोग विद्यमान पर्यंत प्राधान्ये डिरेक्टरीज विभागात निर्दिष्ट तात्पुरती फोल्डर मध्ये साठवली जाते. त्या ठिकाणी, ओड्यासिटी एक प्रकल्प जतन किंवा नाही निवड देते.</t>
-  </si>
-  <si>
-    <t>लांब प्रकल्प माहिती भरपूर असतात. प्रकल्प ओड्यासिटी विद्यमान किंवा संगणक बंद करण्यापूर्वी पूर्णपणे जतन केले आहे याची खात्री करा. आहे, तर प्रकल्प जतन करण्यासाठी प्रगती संवाद, तो बंद करण्यापूर्वी प्रतीक्षा. तळाशी शो स्थिती बार संदेश प्रकल्प जतन केले गेले आहे, तेव्हा.</t>
-  </si>
-  <si>
-    <t>एक ओड्यासिटी प्रकल्प म्हणून जतन केले नाही जे ध्वनी फाईल&gt; आयात करा किंवा धारिका ओढून वापरून आयात करणे आवश्यक आहे. आयात आदेश आधीच उघडा प्रकल्प ध्वनी माहिती आयात करण्यासाठी वापरले जाते.</t>
-  </si>
-  <si>
-    <t>एक प्रकल्प जतन केले आहे आणि "जलद" पर्याय निवडला आहे, तेव्हा ओड्यासिटी ही अवलंबित्वे दर्शवित आहे एक डायलॉग बॉक्स प्रदर्शित आणि प्रकल्प मध्ये ध्वनी माहिती सर्व कॉपी पर्याय आपल्याला देईल. या बाह्य ध्वनी धारिका प्रकल्प स्वतंत्र करते आणि ते हटविण्यासाठी सुरक्षित करते, हलवा, आधिकार नोंद किंवा आवश्यक असल्यास मूळ ध्वनी धारिका सुधारित. प्रकल्प प्राधान्ये सेटिंग एक प्रकल्प जतन करताना ओड्यासिटी विचारू नये म्हणून सुधारित केले जाऊ शकते पण नेहमी एकतर अवलंबून ध्वनी धारिका "कॉपी कधीच नाही", किंवा प्रकल्प मध्ये त्यांना "नेहमी कॉपी".</t>
-  </si>
-  <si>
-    <t>मूळ स्थान uncompressed धारिका वाचा (जलद): ओड्यासिटी वापर ऑन-डिमांड लोड करीत आहे. या आयात धारिका बरेच जलद केवळ आयात धारिका संदर्भ आणि आयात धारिका उपलब्ध उर्वरित अवलंबून असलेल्या लहान auf "सारांश" धारिका लिहून. ध्वनी माहिती केवळ धारिका आपण त्या त्यानंतर संपादन कोणत्याही भागात मध्ये कॉपी केले आहे. आपण आयात धारिका संपूर्ण ध्वनी संपादन लागू केल्यास, ओड्यासिटी त्या वेळी संपूर्ण ध्वनी माहिती कॉपी होईल, त्यामुळे आपण संपूर्ण ध्वनी की संपादित करा पूर्ववत करा करणार नाही असे प्रदान, प्रकल्प आयात धारिका अवलंबून यापुढे सदैव होईल आहे .लक्षात ठेवा आपण एकाच धारिका नाव आणि स्थान निर्यात करून वाचन-थेट WAV किंवा एआयएफएफ धारिका खोडून पुन्हा तर, ओड्यासिटी एक प्रत्यय असलेली "-old" आणि एक नंबर आयात धारिका renames, नंतर या "-old" धारिका होते प्रकल्पासाठी अवलंबून धारिका. आपण निर्यात धारिका आनंदी आहेत आणि यापुढे ओड्यासिटी प्रकल्प आवश्यक पर्यंत "-old" फाईल (चे) हटवू नका.</t>
-  </si>
-  <si>
-    <t>आपण पूर्णपणे अभिप्रेत अर्थ समजून नाही तोपर्यंत "जलद" पर्याय निवडू नका. आपण हलविल्यास, पुनर्नामित करा किंवा आयात धारिका हटवा, प्रकल्प माहिती गमावला जाऊ शकतो.</t>
-  </si>
-  <si>
-    <t>आपण प्रकल्प जतन करा, प्रकल्प जतन करा Lossless कॉपी करा ... किंवा जतन प्रकल्प म्हणून वापर करता, तेव्हा ... यापुढे जतन न केलेले बदल, ताज्या जतन न केलेले बदल केले जातात होईपर्यंत म्हणून ".autosave" धारिका हटविली आहे. धारिका अनुप्रयोग माहिती ओड्यासिटी च्या फोल्डर आत "AUTOSAVE" फोल्डर मध्ये साठवली जाते.</t>
-  </si>
-  <si>
-    <t>अशा धारिका ".autosave" लेखन ट्रिगर जोडून किंवा ध्वनी काढून टाकणे किंवा त्यावर परिणाम अर्ज, म्हणून आपण ध्वनी माहितीमध्ये सर्वाधिक बदल. किंवा निवड स्थानावर बदल कर्सर संपादित ".autosave" धारिका लिहू शकत नाही, आणि प्रकल्प बंद करताना पकडले नाही, प्रकल्प सबमेनूसह नाही असल्याने जतन प्रकल्प करून दर्शविल्याप्रमाणे "गलिच्छ" (आधीच आहे तोपर्यंत राखाडी आणि क्लिक जात).</t>
-  </si>
-  <si>
-    <t>एका प्रकल्पावर काम करत असताना डिस्क जागा एक समस्या आहे, तर, आपण पूर्ववत करा पातळी आणि पुन्हा हक्क डिस्क जागा टाकून पहा&gt; इतिहास वापरू शकता .... लक्षात ठेवा की आपण&gt; धारिका वापरून बंद करा किंवा ओड्यासिटी विद्यमान प्रकल्प बंद एकदा, पूर्ववत / पुन्हा आवश्यक ध्वनी माहिती त्यामुळे शक्य आर्थिकदृष्ट्या प्रकल्प स्टोरेज म्हणून, काढून टाकली जाते.</t>
-  </si>
-  <si>
-    <t>प्रोजेक्ट धारिका ओड्यासिटी प्रकल्प फिती आणि गीतपट्टा अप करण्यासाठी एकत्र या AU धारिका दुवे कसे वर्णन; तो देखील वाढणे, पॅन आणि लिफाफा माहिती समाविष्टीत आहे, व्यवस्थापित करण्यासाठी माहिती</t>
-  </si>
-  <si>
-    <t>एक प्रकल्प जतन करीत आहे अपूर्ण काम आणि पुन्हा-उघडा तो नक्की म्हणून नंतर ओड्यासिटी मध्ये जतन सर्व संपादने आणि रेकॉर्ड / आयात गीतपट्टा जतन करतो देते. टीप पूर्ववत इतिहास प्रकल्प आणि प्रकल्प आपण नंतर प्रकल्प पुन्हा उघडता तेव्हा इतिहास सुरू पुन्हा म्हणून जतन केला नाही काळजीपूर्वक आहे.</t>
-  </si>
-  <si>
-    <t>जलद लोड, अगदी अनेक लांब गीतपट्टा</t>
-  </si>
-  <si>
-    <t>या Lossy, संकुचित या प्रोधारिकामध्ये स्वरूपात आपल्या प्रकल्पाचा एक प्रत जतन करेल, प्रत्येक गीतपट्टा स्वतंत्र OGG धारिका म्हणून जतन केले जात आहे.</t>
-  </si>
-  <si>
-    <t>वारसा AUP फाईल उघडून करण्यापूर्वी, तो आणि त्याच्या _data फोल्डर कॉपी आणि बॅकअप करण्यासाठी एका भिन्न फोल्डरमध्ये त्यांना पेस्ट करा. आपण ओड्यासिटी 1.2.x बॅकअप उघडू शकता आवश्यक असल्यास, WAV वर्तमान ओड्यासिटी मध्ये WAV धारिका आयात म्हणून प्रत्येक गीतपट्टा निर्यात.</t>
-  </si>
-  <si>
-    <t>प्रकल्प वारसा ओड्यासिटी 1.1.x मध्ये तयार केला आहे किंवा यापूर्वी फक्त ओड्यासिटी वारसा आवृत्ती WAV म्हणून प्रत्येक ध्वनी गीतपट्टा निर्यात उघडल्या जाऊ शकतात, नंतर ओड्यासिटी वर्तमान आवृत्ती मध्ये WAV धारिका आयात करा.</t>
-  </si>
-  <si>
-    <t>एक साधी एकच गीतपट्टा प्रकल्प (वाढणे किंवा पॅन सेटिंग्ज नाही, किंवा व्हॉल्यूम समायोजित करण्यासाठी एक लिफाफा वापर) एक शक्य उपाय प्रकल्प हलवू शकत आहे. त्याऐवजी, धारिका वापर&gt; निर्यात&gt; निर्यात ध्वनी ... आदेश WAV धारिका निर्यात करण्यासाठी. या WAV धारिका नंतर (जसे USB फ्लॅश ड्राइव्ह वापरून म्हणून) दुसर्या संगणकावर कॉपी केला जाऊ शकतो, धारिका नंतर&gt; आयात आदेश ओड्यासिटी प्रकल्प WAV धारिका लोड करण्यासाठी वापरले जाऊ शकते. वैकल्पिकरित्या WAV धारिका ई-मेल द्वारे किंवा एक फाईल शेअरिंग वेबसाइट द्वारे पाठविले जाऊ शकते कोणीतरी त्यांच्या संगणकावर एक ओड्यासिटी प्रकल्प आयात करू शकता कोण (WAV ईमेल साठी खूप मोठे नाही आहे).</t>
-  </si>
-  <si>
-    <t>अनेक गीतपट्टा आहे की एक प्रकल्प, किंवा वाढणे किंवा पॅन सेटिंग्ज किंवा गीतपट्टा आवाज समायोजित करण्यासाठी एक लिफाफा वापर सिंगल-गीतपट्टा प्रकल्पासाठी, संपूर्ण प्रकल्प हलविले करणे आवश्यक आहे. त्याच संगणकावरील वेगळ्या स्थानावर हलविण्यासाठी, धारिका वापर&gt; जतन करा प्रकल्प&gt; जतन करा प्रकल्प म्हणून .... जतन प्रकल्प म्हणून या मंद असू शकते तरी, समान नेटवर्क वरील दुसर्या संगणकावर प्रकल्प हस्तांतरित करण्यासाठी वापरले जाऊ शकते. तो हाताने प्रकल्प हलविण्यासाठी जतन आणि प्रकल्प बंद आवश्यक आहे, तर AUP धारिका &lt;my_project_name&gt; .AUP आणि _data फोल्डर &lt;my_project_name&gt; _data भिन्न फोल्डरमध्ये किंवा संगणक जा. .AUP धारिका आणि _data फोल्डर नवीन फोल्डर मध्ये एकत्र राहू याची खात्री करा.</t>
-  </si>
-  <si>
-    <t>आपण एक गीतपट्टा मध्ये फक्त एक लहान निवड फक्त त्या बदलेल्या डाटा लहान निवड डिस्कवर लिहिले आहे की, संपादन, तर. तथापि, हे अद्याप निवड डिस्क जागा वापर दुप्पट, आणि त्या निवड वर आणखी संपादन प्रतिनिधित्व (आपण प्रथम मागील संपादित करा पूर्ववत करा नाही तर) पुन्हा पुन्हा तीच रक्कम जोडते, आणि त्यामुळे वर.</t>
-  </si>
-  <si>
-    <t>आपण ओड्यासिटी स्वतः बाहेर पडू पर्यंत कट किंवा कॉपी करून ओड्यासिटी फीतबोर्ड स्थीत कोणतीही ध्वनी माहिती मात्र ठेवली जाते.</t>
-  </si>
-  <si>
-    <t>स्टोअर्स सर्व ओड्यासिटी गीतपट्टा आणि फीत, नाव, मोठेपणा लिफाफा गुण वाढणे आणि पॅन माहिती, इतर प्रकल्प माहिती एकत्र. ध्वनी मुद्रण आयात धारिका्स, व्युत्पन्न ध्वनी किंवा त्या कोणत्याही यांचे मिश्रण असू शकते. प्रकल्प आपल्या विस्तारित मल्टि-गीतपट्टा तुकडा जतन करण्यासाठी आणि नंतर आपण सोडले त्याच म्हणून परत एक सोयिस्कर मार्ग आहेत.</t>
-  </si>
-  <si>
-    <t>कारण प्रकल्प माहिती आकार इतरांना जटिल प्रकल्प ईमेल कठीण आणि कारण आपण प्रकल्प रचना अखंड राहील याची खात्री करण्यासाठी असलेली AUP धारिका आणि _data फोल्डर एक झिप धारिका पाठवणे आवश्यक आहे करू शकता. आपण प्रकल्प थोडासा Lossy ध्वनी पाठवत हरकत नसेल तर, धारिका आकार खूप प्रकल्प एक संकुचित प्रत अप zip करणे कमी केले जाऊ शकते. लक्षात ठेवा की झिप स्वरूप म्हणून प्रकल्प, नाव, गीतपट्टा नावं मेटामाहिती नाव, विश्वसनीय वर्ण एन्कोडिंग समर्थन देत नाही, फक्त z वर्ण झहीर किंवा एक वापर, संपूर्ण क्रमांक (0 ते 9), underscore किंवा हायफन-वजा (किंवा NUMPAD_SUBTRACT की वापरा).</t>
-  </si>
-  <si>
-    <t>ओड्यासिटी प्रकल्प एक उच्च स्तरीय AUP धारिका आणि ध्वनी धारिका (ध्वनी माहिती) असलेली संबंधित फोल्डर आहे. AUP एक ​​आवाज धारिका ते फक्त कसे फोल्डर ध्वनी धारिका प्रकल्प बांधकाम ओड्यासिटी सांगतो की सूचना सूची आहे नाही आहे. ओड्यासिटी प्रकल्प फक्त ओड्यासिटी वापरली जाऊ शकते.</t>
-  </si>
-  <si>
-    <t>ओड्यासिटी प्रकल्प स्वरूप सुसंगत नाही आणि कोणतेही अन्य ध्वनी अनुप्रयोग मध्ये उघडले जाऊ शकत नाही.</t>
-  </si>
-  <si>
-    <t>ओड्यासिटी सहसा उघडा AUP धारिका वारसा ओड्यासिटी 1.2.x मध्ये तयार करू शकता, परंतु प्रकल्प जतन करत 1.2.x. पुन्हा उघडण्यासाठी टाळण्यासाठी होईल</t>
-  </si>
-  <si>
-    <t>प्रकल्प (सुरक्षित) मध्ये uncompressed धारिका कॉपी करा: ही डीफॉल्ट सेटिंग आहे. धारिका संपूर्ण ध्वनी माहिती मध्ये ओड्यासिटी प्रती त्यांना आयात करताना.</t>
-  </si>
-  <si>
-    <t>ओड्यासिटी संदर्भ मूळ ध्वनी सामग्री आपण प्रत्यक्षात संपादन काही प्रकारचे अशा दूर एक तुकडा कापून किंवा कोणताही परिणाम वापरून म्हणून काम होईपर्यंत. त्यामुळे आपण संपादित करा&gt; निवड डुप्लिकेट तर, या प्रत्यक्षात संख्या .au _data फोल्डर धारिका वाढत नाही, आणि डिस्क स्पेस वापर वाढत नाही. संपादित करा&gt; उदाहरणार्थ कॉपी .au धारिकांची संख्या वाढ नाही, पण त्यामुळे या धारिका संपादित ओड्यासिटी फीतबोर्ड वर स्वतंत्रपणे कायम राखणे शक्य आहे&gt; पेस्ट करा.</t>
   </si>
 </sst>
 </file>
@@ -815,23 +821,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1173,21 +1179,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="B108" workbookViewId="0">
+      <selection activeCell="C119" sqref="C119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="92.88671875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="73.21875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="92.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="73.21875" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1195,890 +1201,890 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>193</v>
+      <c r="C6" s="6" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>228</v>
+      <c r="C7" s="6" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>169</v>
+      <c r="C9" s="6" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>152</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>154</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>155</v>
+        <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>157</v>
+        <v>233</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>152</v>
+        <v>230</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="7" t="s">
-        <v>226</v>
+      <c r="C23" s="6" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="7" t="s">
-        <v>229</v>
+      <c r="C24" s="6" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>25</v>
+      <c r="B26" s="2" t="s">
+        <v>193</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>26</v>
+      <c r="B27" s="2" t="s">
+        <v>194</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>124</v>
+        <v>179</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>125</v>
+      <c r="B28" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>204</v>
+      <c r="B29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>171</v>
+      <c r="B30" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>216</v>
+      <c r="B31" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>196</v>
+      <c r="B32" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B33" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>205</v>
+      <c r="B34" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>34</v>
+      <c r="B35" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>173</v>
+      <c r="B36" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>36</v>
+      <c r="B37" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>197</v>
+        <v>162</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>37</v>
+      <c r="B38" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B39" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>39</v>
+      <c r="B40" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>176</v>
+      <c r="B42" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>41</v>
+      <c r="B43" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>217</v>
+      <c r="B44" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>206</v>
+      <c r="B45" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>44</v>
+      <c r="B46" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>45</v>
+      <c r="B47" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>207</v>
+      <c r="B48" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" s="3" t="s">
-        <v>47</v>
+      <c r="B49" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B50" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>179</v>
+      <c r="B51" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>128</v>
+      <c r="B52" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53" s="3" t="s">
-        <v>51</v>
+      <c r="B53" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>130</v>
+      <c r="B54" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>162</v>
+      <c r="B55" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B56" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>180</v>
+      <c r="B56" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B57" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>181</v>
+      <c r="B57" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B58" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>208</v>
+      <c r="B58" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="B60" s="3" t="s">
-        <v>57</v>
+      <c r="B60" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>131</v>
+        <v>170</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="B61" s="3" t="s">
-        <v>58</v>
+      <c r="B61" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>132</v>
+        <v>171</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B62" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>133</v>
+      <c r="B62" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="B63" s="3" t="s">
-        <v>60</v>
+      <c r="B63" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="B64" s="3" t="s">
-        <v>61</v>
+      <c r="B64" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>135</v>
+        <v>205</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="B65" s="3" t="s">
-        <v>62</v>
+      <c r="B65" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="B66" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>137</v>
+      <c r="B66" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
-      <c r="B67" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>182</v>
+      <c r="B67" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
-      <c r="B68" s="3" t="s">
-        <v>65</v>
+      <c r="B68" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
-      <c r="B69" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C69" s="7" t="s">
-        <v>183</v>
+      <c r="B69" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
-      <c r="B70" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>219</v>
+      <c r="B70" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
-      <c r="B71" s="3" t="s">
-        <v>68</v>
+      <c r="B71" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
-      <c r="B72" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C72" s="7" t="s">
+      <c r="B72" s="2" t="s">
         <v>198</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
-      <c r="B73" s="3" t="s">
-        <v>70</v>
+      <c r="B73" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>199</v>
+        <v>175</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
-      <c r="B74" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C74" s="7" t="s">
-        <v>209</v>
+      <c r="B74" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
-      <c r="B75" s="3" t="s">
-        <v>72</v>
+      <c r="B75" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
-      <c r="B76" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C76" s="7" t="s">
-        <v>230</v>
+      <c r="B76" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
-      <c r="B77" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C77" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B77" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
-      <c r="B78" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C78" s="7" t="s">
-        <v>221</v>
+      <c r="B78" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B79" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
-      <c r="B80" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C80" s="7" t="s">
-        <v>200</v>
+      <c r="B80" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
-      <c r="B81" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C81" s="7" t="s">
-        <v>184</v>
+      <c r="B81" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
-      <c r="B82" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C82" s="7" t="s">
+      <c r="B82" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C82" s="6" t="s">
         <v>210</v>
       </c>
     </row>
@@ -2086,371 +2092,371 @@
       <c r="A83" s="1">
         <v>81</v>
       </c>
-      <c r="B83" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C83" s="7" t="s">
-        <v>185</v>
+      <c r="B83" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
-      <c r="B84" s="3" t="s">
-        <v>80</v>
+      <c r="B84" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>140</v>
+        <v>211</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
-      <c r="B85" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C85" s="7" t="s">
-        <v>186</v>
+      <c r="B85" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
-      <c r="B86" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C86" s="7" t="s">
-        <v>231</v>
+      <c r="B86" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
-      <c r="B87" s="3" t="s">
-        <v>83</v>
+      <c r="B87" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
-      <c r="B88" s="3" t="s">
-        <v>84</v>
+      <c r="B88" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
-      <c r="B89" s="3" t="s">
-        <v>85</v>
+      <c r="B89" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>187</v>
+        <v>144</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
-      <c r="B90" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C90" s="7" t="s">
-        <v>188</v>
+      <c r="B90" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
-      <c r="B91" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C91" s="7" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B91" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
-      <c r="B92" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C92" s="7" t="s">
-        <v>212</v>
+      <c r="B92" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
-      <c r="B93" s="3" t="s">
-        <v>89</v>
+      <c r="B93" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
-      <c r="B94" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C94" s="7" t="s">
-        <v>164</v>
+      <c r="B94" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
-      <c r="B95" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C95" s="7" t="s">
-        <v>143</v>
+      <c r="B95" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
-      <c r="B96" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C96" s="7" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="B96" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
-      <c r="B97" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C97" s="7" t="s">
-        <v>222</v>
+      <c r="B97" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
-      <c r="B98" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C98" s="7" t="s">
-        <v>223</v>
+      <c r="B98" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
-      <c r="B99" s="3" t="s">
-        <v>95</v>
+      <c r="B99" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>144</v>
+        <v>221</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
-      <c r="B100" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C100" s="7" t="s">
-        <v>201</v>
+      <c r="B100" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
-      <c r="B101" s="3" t="s">
-        <v>97</v>
+      <c r="B101" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
-      <c r="B102" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C102" s="7" t="s">
-        <v>227</v>
+      <c r="B102" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
-      <c r="B103" s="3" t="s">
-        <v>99</v>
+      <c r="B103" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
-      <c r="B104" s="3" t="s">
+      <c r="B104" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>103</v>
       </c>
-      <c r="B105" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C105" s="7" t="s">
-        <v>146</v>
+      <c r="B105" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
-      <c r="B106" s="3" t="s">
-        <v>101</v>
+      <c r="B106" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
-      <c r="B107" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C107" s="7" t="s">
-        <v>194</v>
+      <c r="B107" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
-      <c r="B108" s="3" t="s">
+      <c r="B108" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>157</v>
+        <v>133</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
-      <c r="B109" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C109" s="7" t="s">
-        <v>166</v>
+      <c r="B109" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
-      <c r="B110" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C110" s="7" t="s">
-        <v>190</v>
+      <c r="B110" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
-      <c r="B111" s="3" t="s">
-        <v>105</v>
+      <c r="B111" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>110</v>
       </c>
-      <c r="B112" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C112" s="7" t="s">
-        <v>203</v>
+      <c r="B112" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>111</v>
       </c>
-      <c r="B113" s="3" t="s">
+      <c r="B113" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>112</v>
       </c>
-      <c r="B114" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C114" s="7" t="s">
-        <v>191</v>
+      <c r="B114" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>113</v>
       </c>
-      <c r="B115" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C115" s="7" t="s">
-        <v>213</v>
+      <c r="B115" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>114</v>
       </c>
-      <c r="B116" s="3" t="s">
-        <v>109</v>
+      <c r="B116" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="C116" s="5" t="s">
         <v>192</v>
@@ -2460,99 +2466,99 @@
       <c r="A117" s="1">
         <v>115</v>
       </c>
-      <c r="B117" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C117" s="7" t="s">
-        <v>214</v>
+      <c r="B117" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>116</v>
       </c>
-      <c r="B118" s="3" t="s">
+      <c r="B118" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>117</v>
       </c>
-      <c r="B119" s="3" t="s">
-        <v>111</v>
+      <c r="B119" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>118</v>
       </c>
-      <c r="B120" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C120" s="7" t="s">
-        <v>232</v>
+      <c r="B120" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>119</v>
       </c>
-      <c r="B121" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C121" s="7" t="s">
-        <v>167</v>
+      <c r="B121" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>120</v>
       </c>
-      <c r="B122" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C122" s="7" t="s">
-        <v>224</v>
+      <c r="B122" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>121</v>
       </c>
-      <c r="B123" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C123" s="7" t="s">
-        <v>195</v>
+      <c r="B123" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>122</v>
       </c>
-      <c r="B124" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C124" s="7" t="s">
-        <v>215</v>
+      <c r="B124" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>123</v>
       </c>
-      <c r="B125" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C125" s="7" t="s">
-        <v>225</v>
+      <c r="B125" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>216</v>
       </c>
     </row>
   </sheetData>
